--- a/controllers/roundTwo/investor_smriti.xlsx
+++ b/controllers/roundTwo/investor_smriti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheIM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C368FBB6-4F5A-49E5-8BF9-77B8030A5D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEC8A15-BA6D-4C17-BA12-98864D84B7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="171">
   <si>
     <t>Investor's Space</t>
   </si>
@@ -1124,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1512,7 +1512,6 @@
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="35" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1611,6 +1610,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2039,34 +2043,34 @@
     </row>
     <row r="2" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
+      <c r="U2" s="155"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="155"/>
+      <c r="X2" s="155"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="155"/>
       <c r="AB2" s="10"/>
       <c r="AC2" s="10"/>
       <c r="AD2" s="10"/>
@@ -2145,33 +2149,33 @@
     </row>
     <row r="4" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A4" s="1"/>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="160" t="s">
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159"/>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158"/>
+      <c r="X4" s="158"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
@@ -2201,32 +2205,32 @@
     </row>
     <row r="5" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A5" s="1"/>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="162" t="s">
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="159"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="158"/>
+      <c r="O5" s="158"/>
+      <c r="P5" s="158"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="158"/>
+      <c r="S5" s="158"/>
+      <c r="T5" s="158"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
       <c r="X5" s="18"/>
       <c r="Y5" s="16"/>
       <c r="Z5" s="1"/>
@@ -2326,27 +2330,27 @@
     </row>
     <row r="8" spans="1:50" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25"/>
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="163" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="27"/>
-      <c r="D8" s="166" t="s">
+      <c r="D8" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="166" t="s">
+      <c r="E8" s="165" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="27"/>
-      <c r="G8" s="166" t="s">
+      <c r="G8" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="166" t="s">
+      <c r="H8" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="166" t="s">
+      <c r="I8" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="167" t="s">
+      <c r="J8" s="166" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="26"/>
@@ -2357,15 +2361,15 @@
     </row>
     <row r="9" spans="1:50" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31"/>
-      <c r="B9" s="165"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
       <c r="K9" s="27" t="s">
         <v>12</v>
       </c>
@@ -2376,15 +2380,15 @@
     </row>
     <row r="10" spans="1:50" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35"/>
-      <c r="B10" s="165"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="27"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
       <c r="K10" s="26"/>
       <c r="L10" s="36" t="s">
         <v>13</v>
@@ -2436,7 +2440,7 @@
       <c r="G12" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="168">
+      <c r="H12" s="167">
         <v>2</v>
       </c>
       <c r="I12" s="49" t="s">
@@ -2478,7 +2482,7 @@
       <c r="G13" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="165"/>
+      <c r="H13" s="164"/>
       <c r="I13" s="49" t="s">
         <v>19</v>
       </c>
@@ -2518,7 +2522,7 @@
       <c r="G14" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="165"/>
+      <c r="H14" s="164"/>
       <c r="I14" s="49" t="s">
         <v>25</v>
       </c>
@@ -2558,7 +2562,7 @@
       <c r="G15" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="H15" s="165"/>
+      <c r="H15" s="164"/>
       <c r="I15" s="49" t="s">
         <v>25</v>
       </c>
@@ -2598,7 +2602,7 @@
       <c r="G16" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="169"/>
+      <c r="H16" s="168"/>
       <c r="I16" s="49" t="s">
         <v>25</v>
       </c>
@@ -2659,7 +2663,7 @@
       <c r="G18" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="168">
+      <c r="H18" s="167">
         <v>2</v>
       </c>
       <c r="I18" s="60" t="str">
@@ -2703,7 +2707,7 @@
       <c r="G19" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="165"/>
+      <c r="H19" s="164"/>
       <c r="I19" s="60" t="str">
         <f t="shared" si="1"/>
         <v>8-15%</v>
@@ -2741,7 +2745,7 @@
       <c r="G20" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="H20" s="165"/>
+      <c r="H20" s="164"/>
       <c r="I20" s="60" t="str">
         <f t="shared" si="1"/>
         <v>14-20%</v>
@@ -2783,7 +2787,7 @@
       <c r="G21" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="H21" s="165"/>
+      <c r="H21" s="164"/>
       <c r="I21" s="60" t="str">
         <f t="shared" si="1"/>
         <v>14-20%</v>
@@ -2821,7 +2825,7 @@
       <c r="G22" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="169"/>
+      <c r="H22" s="168"/>
       <c r="I22" s="60" t="str">
         <f t="shared" si="1"/>
         <v>14-20%</v>
@@ -2880,7 +2884,7 @@
       <c r="G24" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="168">
+      <c r="H24" s="167">
         <v>2</v>
       </c>
       <c r="I24" s="60" t="str">
@@ -2920,7 +2924,7 @@
       <c r="G25" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="165"/>
+      <c r="H25" s="164"/>
       <c r="I25" s="60" t="str">
         <f t="shared" si="4"/>
         <v>8-15%</v>
@@ -2958,7 +2962,7 @@
       <c r="G26" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="H26" s="165"/>
+      <c r="H26" s="164"/>
       <c r="I26" s="60" t="str">
         <f t="shared" si="4"/>
         <v>14-20%</v>
@@ -2996,7 +3000,7 @@
       <c r="G27" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="H27" s="165"/>
+      <c r="H27" s="164"/>
       <c r="I27" s="60" t="str">
         <f t="shared" si="4"/>
         <v>14-20%</v>
@@ -3034,7 +3038,7 @@
       <c r="G28" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="H28" s="169"/>
+      <c r="H28" s="168"/>
       <c r="I28" s="60" t="str">
         <f t="shared" si="4"/>
         <v>14-20%</v>
@@ -3093,7 +3097,7 @@
       <c r="G30" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="H30" s="168">
+      <c r="H30" s="167">
         <v>2</v>
       </c>
       <c r="I30" s="60" t="str">
@@ -3134,7 +3138,7 @@
       <c r="G31" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="H31" s="165"/>
+      <c r="H31" s="164"/>
       <c r="I31" s="60" t="str">
         <f t="shared" ref="I31:K31" si="9">I13</f>
         <v>8-15%</v>
@@ -3173,7 +3177,7 @@
       <c r="G32" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="H32" s="165"/>
+      <c r="H32" s="164"/>
       <c r="I32" s="60" t="str">
         <f t="shared" ref="I32:K32" si="10">I14</f>
         <v>14-20%</v>
@@ -3212,7 +3216,7 @@
       <c r="G33" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="165"/>
+      <c r="H33" s="164"/>
       <c r="I33" s="60" t="str">
         <f t="shared" ref="I33:K33" si="11">I15</f>
         <v>14-20%</v>
@@ -3251,7 +3255,7 @@
       <c r="G34" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="H34" s="169"/>
+      <c r="H34" s="168"/>
       <c r="I34" s="61" t="str">
         <f t="shared" ref="I34:K34" si="12">I16</f>
         <v>14-20%</v>
@@ -3274,12 +3278,12 @@
     </row>
     <row r="35" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="72"/>
-      <c r="B35" s="151"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="138"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="139"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="138"/>
       <c r="H35" s="73"/>
       <c r="I35" s="73"/>
       <c r="J35" s="73"/>
@@ -3325,8 +3329,8 @@
       <c r="AX35" s="20"/>
     </row>
     <row r="36" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="151"/>
-      <c r="B36" s="139"/>
+      <c r="A36" s="150"/>
+      <c r="B36" s="138"/>
       <c r="C36" s="75"/>
       <c r="D36" s="75"/>
       <c r="E36" s="75"/>
@@ -3377,8 +3381,8 @@
       <c r="AX36" s="20"/>
     </row>
     <row r="37" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="151"/>
-      <c r="B37" s="139"/>
+      <c r="A37" s="150"/>
+      <c r="B37" s="138"/>
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
       <c r="E37" s="72"/>
@@ -3429,8 +3433,8 @@
       <c r="AX37" s="20"/>
     </row>
     <row r="38" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="151"/>
-      <c r="B38" s="139"/>
+      <c r="A38" s="150"/>
+      <c r="B38" s="138"/>
       <c r="C38" s="72"/>
       <c r="D38" s="72"/>
       <c r="E38" s="72"/>
@@ -3481,8 +3485,8 @@
       <c r="AX38" s="20"/>
     </row>
     <row r="39" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="151"/>
-      <c r="B39" s="139"/>
+      <c r="A39" s="150"/>
+      <c r="B39" s="138"/>
       <c r="C39" s="72"/>
       <c r="D39" s="72"/>
       <c r="E39" s="72"/>
@@ -3535,8 +3539,8 @@
       <c r="AX39" s="20"/>
     </row>
     <row r="40" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="151"/>
-      <c r="B40" s="139"/>
+      <c r="A40" s="150"/>
+      <c r="B40" s="138"/>
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
       <c r="E40" s="72"/>
@@ -3587,8 +3591,8 @@
       <c r="AX40" s="20"/>
     </row>
     <row r="41" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="151"/>
-      <c r="B41" s="139"/>
+      <c r="A41" s="150"/>
+      <c r="B41" s="138"/>
       <c r="C41" s="72"/>
       <c r="D41" s="72"/>
       <c r="E41" s="72"/>
@@ -3639,8 +3643,8 @@
       <c r="AX41" s="20"/>
     </row>
     <row r="42" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="151"/>
-      <c r="B42" s="139"/>
+      <c r="A42" s="150"/>
+      <c r="B42" s="138"/>
       <c r="C42" s="72"/>
       <c r="D42" s="72"/>
       <c r="E42" s="72"/>
@@ -3691,8 +3695,8 @@
       <c r="AX42" s="20"/>
     </row>
     <row r="43" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="151"/>
-      <c r="B43" s="139"/>
+      <c r="A43" s="150"/>
+      <c r="B43" s="138"/>
       <c r="C43" s="72"/>
       <c r="D43" s="72"/>
       <c r="E43" s="72"/>
@@ -3743,8 +3747,8 @@
       <c r="AX43" s="20"/>
     </row>
     <row r="44" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="151"/>
-      <c r="B44" s="139"/>
+      <c r="A44" s="150"/>
+      <c r="B44" s="138"/>
       <c r="C44" s="72"/>
       <c r="D44" s="72"/>
       <c r="E44" s="72"/>
@@ -3795,8 +3799,8 @@
       <c r="AX44" s="20"/>
     </row>
     <row r="45" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="151"/>
-      <c r="B45" s="139"/>
+      <c r="A45" s="150"/>
+      <c r="B45" s="138"/>
       <c r="C45" s="72"/>
       <c r="D45" s="72"/>
       <c r="E45" s="72"/>
@@ -3847,8 +3851,8 @@
       <c r="AX45" s="20"/>
     </row>
     <row r="46" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="151"/>
-      <c r="B46" s="139"/>
+      <c r="A46" s="150"/>
+      <c r="B46" s="138"/>
       <c r="C46" s="72"/>
       <c r="D46" s="72"/>
       <c r="E46" s="72"/>
@@ -3899,10 +3903,10 @@
       <c r="AX46" s="20"/>
     </row>
     <row r="47" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="151"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="139"/>
+      <c r="A47" s="150"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="138"/>
       <c r="E47" s="72"/>
       <c r="F47" s="72"/>
       <c r="G47" s="72"/>
@@ -3951,8 +3955,8 @@
       <c r="AX47" s="20"/>
     </row>
     <row r="48" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="151"/>
-      <c r="B48" s="139"/>
+      <c r="A48" s="150"/>
+      <c r="B48" s="138"/>
       <c r="C48" s="72"/>
       <c r="D48" s="72"/>
       <c r="E48" s="72"/>
@@ -4005,22 +4009,22 @@
       <c r="AX48" s="20"/>
     </row>
     <row r="49" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="149" t="s">
+      <c r="A49" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="139"/>
+      <c r="B49" s="138"/>
       <c r="C49" s="77"/>
-      <c r="D49" s="137" t="s">
+      <c r="D49" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="138"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="138"/>
-      <c r="H49" s="138"/>
-      <c r="I49" s="138"/>
-      <c r="J49" s="138"/>
-      <c r="K49" s="138"/>
-      <c r="L49" s="139"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
+      <c r="J49" s="137"/>
+      <c r="K49" s="137"/>
+      <c r="L49" s="138"/>
       <c r="M49" s="78">
         <f>IF(E58=TRUE,D58,IF(E57=TRUE,D57,IF(E56=TRUE,D56,IF(E59=TRUE,D59,IF(E60=TRUE,D60,A51*100)))))</f>
         <v>720000</v>
@@ -4064,29 +4068,29 @@
       <c r="AX49" s="81"/>
     </row>
     <row r="50" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="147" t="s">
+      <c r="A50" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="139"/>
+      <c r="B50" s="138"/>
       <c r="C50" s="82"/>
-      <c r="D50" s="140" t="s">
+      <c r="D50" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="139"/>
-      <c r="F50" s="141" t="s">
+      <c r="E50" s="138"/>
+      <c r="F50" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G50" s="139"/>
+      <c r="G50" s="138"/>
       <c r="H50" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I50" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J50" s="142" t="s">
+      <c r="J50" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K50" s="139"/>
+      <c r="K50" s="138"/>
       <c r="L50" s="85"/>
       <c r="M50" s="80"/>
       <c r="N50" s="79"/>
@@ -4128,10 +4132,10 @@
       <c r="AX50" s="81"/>
     </row>
     <row r="51" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="150">
+      <c r="A51" s="149">
         <v>6000</v>
       </c>
-      <c r="B51" s="139"/>
+      <c r="B51" s="138"/>
       <c r="C51" s="86"/>
       <c r="D51" s="86" t="s">
         <v>58</v>
@@ -4198,10 +4202,10 @@
       <c r="AX51" s="81"/>
     </row>
     <row r="52" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="147" t="s">
+      <c r="A52" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="139"/>
+      <c r="B52" s="138"/>
       <c r="C52" s="92"/>
       <c r="D52" s="92"/>
       <c r="E52" s="92"/>
@@ -4252,8 +4256,8 @@
       <c r="AX52" s="81"/>
     </row>
     <row r="53" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="147"/>
-      <c r="B53" s="139"/>
+      <c r="A53" s="146"/>
+      <c r="B53" s="138"/>
       <c r="C53" s="80"/>
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
@@ -4304,10 +4308,10 @@
       <c r="AX53" s="81"/>
     </row>
     <row r="54" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="148" t="s">
+      <c r="A54" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="139"/>
+      <c r="B54" s="138"/>
       <c r="C54" s="97"/>
       <c r="D54" s="97">
         <f>((((D52+E52+G52+H52+I52+K52+L52+F52+J52)*A51)/100)+A51)*100</f>
@@ -4361,10 +4365,10 @@
       <c r="AX54" s="81"/>
     </row>
     <row r="55" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="147" t="s">
+      <c r="A55" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="139"/>
+      <c r="B55" s="138"/>
       <c r="C55" s="98"/>
       <c r="D55" s="98"/>
       <c r="E55" s="80"/>
@@ -4710,22 +4714,22 @@
       <c r="AX60" s="81"/>
     </row>
     <row r="61" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="149" t="s">
+      <c r="A61" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="139"/>
+      <c r="B61" s="138"/>
       <c r="C61" s="77"/>
-      <c r="D61" s="137" t="s">
+      <c r="D61" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E61" s="138"/>
-      <c r="F61" s="138"/>
-      <c r="G61" s="138"/>
-      <c r="H61" s="138"/>
-      <c r="I61" s="138"/>
-      <c r="J61" s="138"/>
-      <c r="K61" s="138"/>
-      <c r="L61" s="139"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="137"/>
+      <c r="K61" s="137"/>
+      <c r="L61" s="138"/>
       <c r="M61" s="78">
         <f>IF(E70=TRUE,D70,IF(E69=TRUE,D69,IF(E68=TRUE,D68,IF(E71=TRUE,D71,IF(E72=TRUE,D72,A63*100)))))</f>
         <v>723400</v>
@@ -4769,29 +4773,29 @@
       <c r="AX61" s="81"/>
     </row>
     <row r="62" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="147" t="s">
+      <c r="A62" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B62" s="139"/>
+      <c r="B62" s="138"/>
       <c r="C62" s="82"/>
-      <c r="D62" s="140" t="s">
+      <c r="D62" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E62" s="139"/>
-      <c r="F62" s="141" t="s">
+      <c r="E62" s="138"/>
+      <c r="F62" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G62" s="139"/>
+      <c r="G62" s="138"/>
       <c r="H62" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I62" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J62" s="142" t="s">
+      <c r="J62" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K62" s="139"/>
+      <c r="K62" s="138"/>
       <c r="L62" s="85"/>
       <c r="M62" s="80"/>
       <c r="N62" s="79"/>
@@ -4833,10 +4837,10 @@
       <c r="AX62" s="81"/>
     </row>
     <row r="63" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="150">
+      <c r="A63" s="149">
         <v>7234</v>
       </c>
-      <c r="B63" s="139"/>
+      <c r="B63" s="138"/>
       <c r="C63" s="86"/>
       <c r="D63" s="86" t="s">
         <v>58</v>
@@ -4903,10 +4907,10 @@
       <c r="AX63" s="81"/>
     </row>
     <row r="64" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="147" t="s">
+      <c r="A64" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="139"/>
+      <c r="B64" s="138"/>
       <c r="C64" s="92"/>
       <c r="D64" s="92"/>
       <c r="E64" s="92"/>
@@ -4963,8 +4967,8 @@
       <c r="AX64" s="81"/>
     </row>
     <row r="65" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="147"/>
-      <c r="B65" s="139"/>
+      <c r="A65" s="146"/>
+      <c r="B65" s="138"/>
       <c r="C65" s="80"/>
       <c r="D65" s="80"/>
       <c r="E65" s="80"/>
@@ -5015,10 +5019,10 @@
       <c r="AX65" s="81"/>
     </row>
     <row r="66" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="148" t="s">
+      <c r="A66" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="139"/>
+      <c r="B66" s="138"/>
       <c r="C66" s="97"/>
       <c r="D66" s="97">
         <f>((((D64+E64+G64+H64+I64+K64+L64+F64+J64)*A63)/100)+A63)*100</f>
@@ -5072,10 +5076,10 @@
       <c r="AX66" s="81"/>
     </row>
     <row r="67" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="147" t="s">
+      <c r="A67" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="139"/>
+      <c r="B67" s="138"/>
       <c r="C67" s="98"/>
       <c r="D67" s="98"/>
       <c r="E67" s="80"/>
@@ -5421,22 +5425,22 @@
       <c r="AX72" s="81"/>
     </row>
     <row r="73" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="149" t="s">
+      <c r="A73" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="139"/>
+      <c r="B73" s="138"/>
       <c r="C73" s="77"/>
-      <c r="D73" s="137" t="s">
+      <c r="D73" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E73" s="138"/>
-      <c r="F73" s="138"/>
-      <c r="G73" s="138"/>
-      <c r="H73" s="138"/>
-      <c r="I73" s="138"/>
-      <c r="J73" s="138"/>
-      <c r="K73" s="138"/>
-      <c r="L73" s="139"/>
+      <c r="E73" s="137"/>
+      <c r="F73" s="137"/>
+      <c r="G73" s="137"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="137"/>
+      <c r="J73" s="137"/>
+      <c r="K73" s="137"/>
+      <c r="L73" s="138"/>
       <c r="M73" s="78">
         <f>IF(E82=TRUE,D82,IF(E81=TRUE,D81,IF(E80=TRUE,D80,IF(E83=TRUE,D83,IF(E84=TRUE,D84,A75*100)))))</f>
         <v>1219200</v>
@@ -5480,29 +5484,29 @@
       <c r="AX73" s="81"/>
     </row>
     <row r="74" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="147" t="s">
+      <c r="A74" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B74" s="139"/>
+      <c r="B74" s="138"/>
       <c r="C74" s="82"/>
-      <c r="D74" s="140" t="s">
+      <c r="D74" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E74" s="139"/>
-      <c r="F74" s="141" t="s">
+      <c r="E74" s="138"/>
+      <c r="F74" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G74" s="139"/>
+      <c r="G74" s="138"/>
       <c r="H74" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I74" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J74" s="142" t="s">
+      <c r="J74" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K74" s="139"/>
+      <c r="K74" s="138"/>
       <c r="L74" s="85"/>
       <c r="M74" s="80"/>
       <c r="N74" s="79"/>
@@ -5544,10 +5548,10 @@
       <c r="AX74" s="81"/>
     </row>
     <row r="75" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="150">
+      <c r="A75" s="149">
         <v>8000</v>
       </c>
-      <c r="B75" s="139"/>
+      <c r="B75" s="138"/>
       <c r="C75" s="86"/>
       <c r="D75" s="86" t="s">
         <v>58</v>
@@ -5614,10 +5618,10 @@
       <c r="AX75" s="81"/>
     </row>
     <row r="76" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="147" t="s">
+      <c r="A76" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="139"/>
+      <c r="B76" s="138"/>
       <c r="C76" s="92"/>
       <c r="D76" s="92"/>
       <c r="E76" s="92"/>
@@ -5672,8 +5676,8 @@
       <c r="AX76" s="81"/>
     </row>
     <row r="77" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="147"/>
-      <c r="B77" s="139"/>
+      <c r="A77" s="146"/>
+      <c r="B77" s="138"/>
       <c r="C77" s="80"/>
       <c r="D77" s="80"/>
       <c r="E77" s="80"/>
@@ -5724,10 +5728,10 @@
       <c r="AX77" s="81"/>
     </row>
     <row r="78" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="170" t="s">
+      <c r="A78" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="B78" s="139"/>
+      <c r="B78" s="138"/>
       <c r="C78" s="102"/>
       <c r="D78" s="102">
         <f>((((D76+E76+G76+H76+I76+K76+L76+F76+J76)*A75)/100)+A75)*100</f>
@@ -5781,10 +5785,10 @@
       <c r="AX78" s="104"/>
     </row>
     <row r="79" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="171" t="s">
+      <c r="A79" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="B79" s="139"/>
+      <c r="B79" s="138"/>
       <c r="C79" s="105"/>
       <c r="D79" s="105"/>
       <c r="E79" s="106"/>
@@ -6130,22 +6134,22 @@
       <c r="AX84" s="81"/>
     </row>
     <row r="85" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="149" t="s">
+      <c r="A85" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="B85" s="139"/>
+      <c r="B85" s="138"/>
       <c r="C85" s="77"/>
-      <c r="D85" s="137" t="s">
+      <c r="D85" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E85" s="138"/>
-      <c r="F85" s="138"/>
-      <c r="G85" s="138"/>
-      <c r="H85" s="138"/>
-      <c r="I85" s="138"/>
-      <c r="J85" s="138"/>
-      <c r="K85" s="138"/>
-      <c r="L85" s="139"/>
+      <c r="E85" s="137"/>
+      <c r="F85" s="137"/>
+      <c r="G85" s="137"/>
+      <c r="H85" s="137"/>
+      <c r="I85" s="137"/>
+      <c r="J85" s="137"/>
+      <c r="K85" s="137"/>
+      <c r="L85" s="138"/>
       <c r="M85" s="78">
         <f>IF(E94=TRUE,D94,IF(E93=TRUE,D93,IF(E92=TRUE,D92,IF(E95=TRUE,D95,IF(E96=TRUE,D96,A87*100)))))</f>
         <v>854784</v>
@@ -6189,29 +6193,29 @@
       <c r="AX85" s="81"/>
     </row>
     <row r="86" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="147" t="s">
+      <c r="A86" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B86" s="139"/>
+      <c r="B86" s="138"/>
       <c r="C86" s="82"/>
-      <c r="D86" s="140" t="s">
+      <c r="D86" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E86" s="139"/>
-      <c r="F86" s="141" t="s">
+      <c r="E86" s="138"/>
+      <c r="F86" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G86" s="139"/>
+      <c r="G86" s="138"/>
       <c r="H86" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I86" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J86" s="142" t="s">
+      <c r="J86" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K86" s="139"/>
+      <c r="K86" s="138"/>
       <c r="L86" s="85"/>
       <c r="M86" s="80"/>
       <c r="N86" s="79"/>
@@ -6253,10 +6257,10 @@
       <c r="AX86" s="81"/>
     </row>
     <row r="87" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="150">
+      <c r="A87" s="149">
         <v>9540</v>
       </c>
-      <c r="B87" s="139"/>
+      <c r="B87" s="138"/>
       <c r="C87" s="86"/>
       <c r="D87" s="86" t="s">
         <v>58</v>
@@ -6323,10 +6327,10 @@
       <c r="AX87" s="81"/>
     </row>
     <row r="88" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="147" t="s">
+      <c r="A88" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B88" s="139"/>
+      <c r="B88" s="138"/>
       <c r="C88" s="92"/>
       <c r="D88" s="92"/>
       <c r="E88" s="92"/>
@@ -6387,8 +6391,8 @@
       <c r="AX88" s="81"/>
     </row>
     <row r="89" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="147"/>
-      <c r="B89" s="139"/>
+      <c r="A89" s="146"/>
+      <c r="B89" s="138"/>
       <c r="C89" s="80"/>
       <c r="D89" s="80"/>
       <c r="E89" s="80"/>
@@ -6439,10 +6443,10 @@
       <c r="AX89" s="81"/>
     </row>
     <row r="90" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="170" t="s">
+      <c r="A90" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="139"/>
+      <c r="B90" s="138"/>
       <c r="C90" s="102"/>
       <c r="D90" s="102">
         <f>((((D88+E88+G88+H88+I88+K88+L88+F88+J88)*A87)/100)+A87)*100</f>
@@ -6496,10 +6500,10 @@
       <c r="AX90" s="104"/>
     </row>
     <row r="91" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="171" t="s">
+      <c r="A91" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="B91" s="139"/>
+      <c r="B91" s="138"/>
       <c r="C91" s="105"/>
       <c r="D91" s="105"/>
       <c r="E91" s="106"/>
@@ -6845,22 +6849,22 @@
       <c r="AX96" s="81"/>
     </row>
     <row r="97" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="149" t="s">
+      <c r="A97" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="B97" s="139"/>
+      <c r="B97" s="138"/>
       <c r="C97" s="77"/>
-      <c r="D97" s="137" t="s">
+      <c r="D97" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E97" s="138"/>
-      <c r="F97" s="138"/>
-      <c r="G97" s="138"/>
-      <c r="H97" s="138"/>
-      <c r="I97" s="138"/>
-      <c r="J97" s="138"/>
-      <c r="K97" s="138"/>
-      <c r="L97" s="139"/>
+      <c r="E97" s="137"/>
+      <c r="F97" s="137"/>
+      <c r="G97" s="137"/>
+      <c r="H97" s="137"/>
+      <c r="I97" s="137"/>
+      <c r="J97" s="137"/>
+      <c r="K97" s="137"/>
+      <c r="L97" s="138"/>
       <c r="M97" s="78">
         <f>IF(E106=TRUE,D106,IF(E105=TRUE,D105,IF(E104=TRUE,D104,IF(E107=TRUE,D107,IF(E108=TRUE,D108,A99*100)))))</f>
         <v>110400000</v>
@@ -6904,29 +6908,29 @@
       <c r="AX97" s="81"/>
     </row>
     <row r="98" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="147" t="s">
+      <c r="A98" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B98" s="139"/>
+      <c r="B98" s="138"/>
       <c r="C98" s="82"/>
-      <c r="D98" s="140" t="s">
+      <c r="D98" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E98" s="139"/>
-      <c r="F98" s="141" t="s">
+      <c r="E98" s="138"/>
+      <c r="F98" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G98" s="139"/>
+      <c r="G98" s="138"/>
       <c r="H98" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I98" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J98" s="142" t="s">
+      <c r="J98" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K98" s="139"/>
+      <c r="K98" s="138"/>
       <c r="L98" s="85"/>
       <c r="M98" s="80"/>
       <c r="N98" s="79"/>
@@ -6968,10 +6972,10 @@
       <c r="AX98" s="81"/>
     </row>
     <row r="99" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="150">
+      <c r="A99" s="149">
         <v>800000</v>
       </c>
-      <c r="B99" s="139"/>
+      <c r="B99" s="138"/>
       <c r="C99" s="86"/>
       <c r="D99" s="86" t="s">
         <v>58</v>
@@ -7038,10 +7042,10 @@
       <c r="AX99" s="81"/>
     </row>
     <row r="100" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="147" t="s">
+      <c r="A100" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B100" s="139"/>
+      <c r="B100" s="138"/>
       <c r="C100" s="92"/>
       <c r="D100" s="92"/>
       <c r="E100" s="92"/>
@@ -7098,8 +7102,8 @@
       <c r="AX100" s="81"/>
     </row>
     <row r="101" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="147"/>
-      <c r="B101" s="139"/>
+      <c r="A101" s="146"/>
+      <c r="B101" s="138"/>
       <c r="C101" s="80"/>
       <c r="D101" s="80"/>
       <c r="E101" s="80"/>
@@ -7150,10 +7154,10 @@
       <c r="AX101" s="81"/>
     </row>
     <row r="102" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="170" t="s">
+      <c r="A102" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="B102" s="139"/>
+      <c r="B102" s="138"/>
       <c r="C102" s="102"/>
       <c r="D102" s="102">
         <f>((((D100+E100+G100+H100+I100+K100+L100+F100+J100)*A99)/100)+A99)*100</f>
@@ -7207,10 +7211,10 @@
       <c r="AX102" s="104"/>
     </row>
     <row r="103" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="171" t="s">
+      <c r="A103" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="B103" s="139"/>
+      <c r="B103" s="138"/>
       <c r="C103" s="105"/>
       <c r="D103" s="105"/>
       <c r="E103" s="106"/>
@@ -7556,22 +7560,22 @@
       <c r="AX108" s="81"/>
     </row>
     <row r="109" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="149" t="s">
+      <c r="A109" s="148" t="s">
         <v>71</v>
       </c>
-      <c r="B109" s="139"/>
+      <c r="B109" s="138"/>
       <c r="C109" s="77"/>
-      <c r="D109" s="137" t="s">
+      <c r="D109" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E109" s="138"/>
-      <c r="F109" s="138"/>
-      <c r="G109" s="138"/>
-      <c r="H109" s="138"/>
-      <c r="I109" s="138"/>
-      <c r="J109" s="138"/>
-      <c r="K109" s="138"/>
-      <c r="L109" s="139"/>
+      <c r="E109" s="137"/>
+      <c r="F109" s="137"/>
+      <c r="G109" s="137"/>
+      <c r="H109" s="137"/>
+      <c r="I109" s="137"/>
+      <c r="J109" s="137"/>
+      <c r="K109" s="137"/>
+      <c r="L109" s="138"/>
       <c r="M109" s="78">
         <f>IF(E118=TRUE,D118,IF(E117=TRUE,D117,IF(E116=TRUE,D116,IF(E119=TRUE,D119,IF(E120=TRUE,D120,A111*100)))))</f>
         <v>800676500</v>
@@ -7615,29 +7619,29 @@
       <c r="AX109" s="81"/>
     </row>
     <row r="110" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="147" t="s">
+      <c r="A110" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B110" s="139"/>
+      <c r="B110" s="138"/>
       <c r="C110" s="82"/>
-      <c r="D110" s="140" t="s">
+      <c r="D110" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E110" s="139"/>
-      <c r="F110" s="141" t="s">
+      <c r="E110" s="138"/>
+      <c r="F110" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G110" s="139"/>
+      <c r="G110" s="138"/>
       <c r="H110" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I110" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J110" s="142" t="s">
+      <c r="J110" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K110" s="139"/>
+      <c r="K110" s="138"/>
       <c r="L110" s="85"/>
       <c r="M110" s="80"/>
       <c r="N110" s="79"/>
@@ -7679,10 +7683,10 @@
       <c r="AX110" s="81"/>
     </row>
     <row r="111" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="150">
+      <c r="A111" s="149">
         <v>8006765</v>
       </c>
-      <c r="B111" s="139"/>
+      <c r="B111" s="138"/>
       <c r="C111" s="86"/>
       <c r="D111" s="86" t="s">
         <v>58</v>
@@ -7749,10 +7753,10 @@
       <c r="AX111" s="81"/>
     </row>
     <row r="112" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="147" t="s">
+      <c r="A112" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B112" s="139"/>
+      <c r="B112" s="138"/>
       <c r="C112" s="92"/>
       <c r="D112" s="92"/>
       <c r="E112" s="92"/>
@@ -7809,8 +7813,8 @@
       <c r="AX112" s="81"/>
     </row>
     <row r="113" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="147"/>
-      <c r="B113" s="139"/>
+      <c r="A113" s="146"/>
+      <c r="B113" s="138"/>
       <c r="C113" s="80"/>
       <c r="D113" s="80"/>
       <c r="E113" s="80"/>
@@ -7861,10 +7865,10 @@
       <c r="AX113" s="81"/>
     </row>
     <row r="114" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="170" t="s">
+      <c r="A114" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="B114" s="139"/>
+      <c r="B114" s="138"/>
       <c r="C114" s="102"/>
       <c r="D114" s="102">
         <f>((((D112+E112+G112+H112+I112+K112+L112+F112+J112)*A111)/100)+A111)*100</f>
@@ -7918,10 +7922,10 @@
       <c r="AX114" s="104"/>
     </row>
     <row r="115" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="171" t="s">
+      <c r="A115" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="B115" s="139"/>
+      <c r="B115" s="138"/>
       <c r="C115" s="105"/>
       <c r="D115" s="105"/>
       <c r="E115" s="106"/>
@@ -8267,22 +8271,22 @@
       <c r="AX120" s="81"/>
     </row>
     <row r="121" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="149" t="s">
+      <c r="A121" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="B121" s="139"/>
+      <c r="B121" s="138"/>
       <c r="C121" s="77"/>
-      <c r="D121" s="137" t="s">
+      <c r="D121" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E121" s="138"/>
-      <c r="F121" s="138"/>
-      <c r="G121" s="138"/>
-      <c r="H121" s="138"/>
-      <c r="I121" s="138"/>
-      <c r="J121" s="138"/>
-      <c r="K121" s="138"/>
-      <c r="L121" s="139"/>
+      <c r="E121" s="137"/>
+      <c r="F121" s="137"/>
+      <c r="G121" s="137"/>
+      <c r="H121" s="137"/>
+      <c r="I121" s="137"/>
+      <c r="J121" s="137"/>
+      <c r="K121" s="137"/>
+      <c r="L121" s="138"/>
       <c r="M121" s="78">
         <f>IF(E130=TRUE,D130,IF(E129=TRUE,D129,IF(E128=TRUE,D128,IF(E131=TRUE,D131,IF(E132=TRUE,D132,A123*100)))))</f>
         <v>64400000</v>
@@ -8326,29 +8330,29 @@
       <c r="AX121" s="81"/>
     </row>
     <row r="122" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="147" t="s">
+      <c r="A122" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B122" s="139"/>
+      <c r="B122" s="138"/>
       <c r="C122" s="82"/>
-      <c r="D122" s="140" t="s">
+      <c r="D122" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E122" s="139"/>
-      <c r="F122" s="141" t="s">
+      <c r="E122" s="138"/>
+      <c r="F122" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G122" s="139"/>
+      <c r="G122" s="138"/>
       <c r="H122" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I122" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J122" s="142" t="s">
+      <c r="J122" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K122" s="139"/>
+      <c r="K122" s="138"/>
       <c r="L122" s="85"/>
       <c r="M122" s="80"/>
       <c r="N122" s="79"/>
@@ -8390,10 +8394,10 @@
       <c r="AX122" s="81"/>
     </row>
     <row r="123" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="150">
+      <c r="A123" s="149">
         <v>800000</v>
       </c>
-      <c r="B123" s="139"/>
+      <c r="B123" s="138"/>
       <c r="C123" s="86"/>
       <c r="D123" s="86" t="s">
         <v>58</v>
@@ -8460,10 +8464,10 @@
       <c r="AX123" s="81"/>
     </row>
     <row r="124" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="147" t="s">
+      <c r="A124" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B124" s="139"/>
+      <c r="B124" s="138"/>
       <c r="C124" s="92"/>
       <c r="D124" s="92"/>
       <c r="E124" s="92"/>
@@ -8520,8 +8524,8 @@
       <c r="AX124" s="81"/>
     </row>
     <row r="125" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="147"/>
-      <c r="B125" s="139"/>
+      <c r="A125" s="146"/>
+      <c r="B125" s="138"/>
       <c r="C125" s="80"/>
       <c r="D125" s="80"/>
       <c r="E125" s="80"/>
@@ -8572,10 +8576,10 @@
       <c r="AX125" s="81"/>
     </row>
     <row r="126" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="148" t="s">
+      <c r="A126" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B126" s="139"/>
+      <c r="B126" s="138"/>
       <c r="C126" s="97"/>
       <c r="D126" s="97">
         <f>((((D124+E124+G124+H124+I124+K124+L124+F124+J124)*A123)/100)+A123)*100</f>
@@ -8629,10 +8633,10 @@
       <c r="AX126" s="81"/>
     </row>
     <row r="127" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="147" t="s">
+      <c r="A127" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B127" s="139"/>
+      <c r="B127" s="138"/>
       <c r="C127" s="98"/>
       <c r="D127" s="98"/>
       <c r="E127" s="80"/>
@@ -8978,22 +8982,22 @@
       <c r="AX132" s="81"/>
     </row>
     <row r="133" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="149" t="s">
+      <c r="A133" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="B133" s="139"/>
+      <c r="B133" s="138"/>
       <c r="C133" s="77"/>
-      <c r="D133" s="137" t="s">
+      <c r="D133" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E133" s="138"/>
-      <c r="F133" s="138"/>
-      <c r="G133" s="138"/>
-      <c r="H133" s="138"/>
-      <c r="I133" s="138"/>
-      <c r="J133" s="138"/>
-      <c r="K133" s="138"/>
-      <c r="L133" s="139"/>
+      <c r="E133" s="137"/>
+      <c r="F133" s="137"/>
+      <c r="G133" s="137"/>
+      <c r="H133" s="137"/>
+      <c r="I133" s="137"/>
+      <c r="J133" s="137"/>
+      <c r="K133" s="137"/>
+      <c r="L133" s="138"/>
       <c r="M133" s="78">
         <f>IF(E142=TRUE,D142,IF(E141=TRUE,D141,IF(E140=TRUE,D140,IF(E143=TRUE,D143,IF(E144=TRUE,D144,A135*100)))))</f>
         <v>110400000</v>
@@ -9037,29 +9041,29 @@
       <c r="AX133" s="81"/>
     </row>
     <row r="134" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="147" t="s">
+      <c r="A134" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B134" s="139"/>
+      <c r="B134" s="138"/>
       <c r="C134" s="82"/>
-      <c r="D134" s="140" t="s">
+      <c r="D134" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E134" s="139"/>
-      <c r="F134" s="141" t="s">
+      <c r="E134" s="138"/>
+      <c r="F134" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G134" s="139"/>
+      <c r="G134" s="138"/>
       <c r="H134" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I134" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J134" s="142" t="s">
+      <c r="J134" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K134" s="139"/>
+      <c r="K134" s="138"/>
       <c r="L134" s="85"/>
       <c r="M134" s="80"/>
       <c r="N134" s="79"/>
@@ -9101,10 +9105,10 @@
       <c r="AX134" s="81"/>
     </row>
     <row r="135" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="150">
+      <c r="A135" s="149">
         <v>800000</v>
       </c>
-      <c r="B135" s="139"/>
+      <c r="B135" s="138"/>
       <c r="C135" s="86"/>
       <c r="D135" s="86" t="s">
         <v>58</v>
@@ -9171,10 +9175,10 @@
       <c r="AX135" s="81"/>
     </row>
     <row r="136" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="147" t="s">
+      <c r="A136" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B136" s="139"/>
+      <c r="B136" s="138"/>
       <c r="C136" s="92"/>
       <c r="D136" s="92"/>
       <c r="E136" s="92"/>
@@ -9231,8 +9235,8 @@
       <c r="AX136" s="81"/>
     </row>
     <row r="137" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="147"/>
-      <c r="B137" s="139"/>
+      <c r="A137" s="146"/>
+      <c r="B137" s="138"/>
       <c r="C137" s="80"/>
       <c r="D137" s="80"/>
       <c r="E137" s="80"/>
@@ -9283,10 +9287,10 @@
       <c r="AX137" s="81"/>
     </row>
     <row r="138" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="148" t="s">
+      <c r="A138" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B138" s="139"/>
+      <c r="B138" s="138"/>
       <c r="C138" s="97"/>
       <c r="D138" s="97">
         <f>((((D136+E136+G136+H136+I136+K136+L136+F136+J136)*A135)/100)+A135)*100</f>
@@ -9340,10 +9344,10 @@
       <c r="AX138" s="81"/>
     </row>
     <row r="139" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="147" t="s">
+      <c r="A139" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B139" s="139"/>
+      <c r="B139" s="138"/>
       <c r="C139" s="98"/>
       <c r="D139" s="98"/>
       <c r="E139" s="80"/>
@@ -9689,22 +9693,22 @@
       <c r="AX144" s="81"/>
     </row>
     <row r="145" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="149" t="s">
+      <c r="A145" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="B145" s="139"/>
+      <c r="B145" s="138"/>
       <c r="C145" s="77"/>
-      <c r="D145" s="137" t="s">
+      <c r="D145" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E145" s="138"/>
-      <c r="F145" s="138"/>
-      <c r="G145" s="138"/>
-      <c r="H145" s="138"/>
-      <c r="I145" s="138"/>
-      <c r="J145" s="138"/>
-      <c r="K145" s="138"/>
-      <c r="L145" s="139"/>
+      <c r="E145" s="137"/>
+      <c r="F145" s="137"/>
+      <c r="G145" s="137"/>
+      <c r="H145" s="137"/>
+      <c r="I145" s="137"/>
+      <c r="J145" s="137"/>
+      <c r="K145" s="137"/>
+      <c r="L145" s="138"/>
       <c r="M145" s="78">
         <f>IF(E154=TRUE,D154,IF(E153=TRUE,D153,IF(E152=TRUE,D152,IF(E155=TRUE,D155,IF(E156=TRUE,D156,A147*100)))))</f>
         <v>78200000</v>
@@ -9748,29 +9752,29 @@
       <c r="AX145" s="81"/>
     </row>
     <row r="146" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="147" t="s">
+      <c r="A146" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B146" s="139"/>
+      <c r="B146" s="138"/>
       <c r="C146" s="82"/>
-      <c r="D146" s="140" t="s">
+      <c r="D146" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E146" s="139"/>
-      <c r="F146" s="141" t="s">
+      <c r="E146" s="138"/>
+      <c r="F146" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G146" s="139"/>
+      <c r="G146" s="138"/>
       <c r="H146" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I146" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J146" s="142" t="s">
+      <c r="J146" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K146" s="139"/>
+      <c r="K146" s="138"/>
       <c r="L146" s="85"/>
       <c r="M146" s="80"/>
       <c r="N146" s="79"/>
@@ -9812,10 +9816,10 @@
       <c r="AX146" s="81"/>
     </row>
     <row r="147" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="150">
+      <c r="A147" s="149">
         <v>800000</v>
       </c>
-      <c r="B147" s="139"/>
+      <c r="B147" s="138"/>
       <c r="C147" s="86"/>
       <c r="D147" s="86" t="s">
         <v>58</v>
@@ -9882,10 +9886,10 @@
       <c r="AX147" s="81"/>
     </row>
     <row r="148" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="147" t="s">
+      <c r="A148" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B148" s="139"/>
+      <c r="B148" s="138"/>
       <c r="C148" s="92"/>
       <c r="D148" s="92"/>
       <c r="E148" s="92"/>
@@ -9942,8 +9946,8 @@
       <c r="AX148" s="81"/>
     </row>
     <row r="149" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="147"/>
-      <c r="B149" s="139"/>
+      <c r="A149" s="146"/>
+      <c r="B149" s="138"/>
       <c r="C149" s="80"/>
       <c r="D149" s="80"/>
       <c r="E149" s="80"/>
@@ -9994,10 +9998,10 @@
       <c r="AX149" s="81"/>
     </row>
     <row r="150" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="148" t="s">
+      <c r="A150" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B150" s="139"/>
+      <c r="B150" s="138"/>
       <c r="C150" s="97"/>
       <c r="D150" s="97">
         <f>((((D148+E148+G148+H148+I148+K148+L148+F148+J148)*A147)/100)+A147)*100</f>
@@ -10051,10 +10055,10 @@
       <c r="AX150" s="81"/>
     </row>
     <row r="151" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="147" t="s">
+      <c r="A151" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B151" s="139"/>
+      <c r="B151" s="138"/>
       <c r="C151" s="98"/>
       <c r="D151" s="98"/>
       <c r="E151" s="80"/>
@@ -10400,22 +10404,22 @@
       <c r="AX156" s="81"/>
     </row>
     <row r="157" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="149" t="s">
+      <c r="A157" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="B157" s="139"/>
+      <c r="B157" s="138"/>
       <c r="C157" s="77"/>
-      <c r="D157" s="137" t="s">
+      <c r="D157" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E157" s="138"/>
-      <c r="F157" s="138"/>
-      <c r="G157" s="138"/>
-      <c r="H157" s="138"/>
-      <c r="I157" s="138"/>
-      <c r="J157" s="138"/>
-      <c r="K157" s="138"/>
-      <c r="L157" s="139"/>
+      <c r="E157" s="137"/>
+      <c r="F157" s="137"/>
+      <c r="G157" s="137"/>
+      <c r="H157" s="137"/>
+      <c r="I157" s="137"/>
+      <c r="J157" s="137"/>
+      <c r="K157" s="137"/>
+      <c r="L157" s="138"/>
       <c r="M157" s="78">
         <f>IF(E166=TRUE,D166,IF(E165=TRUE,D165,IF(E164=TRUE,D164,IF(E167=TRUE,D167,IF(E168=TRUE,D168,A159*100)))))</f>
         <v>64400000</v>
@@ -10459,29 +10463,29 @@
       <c r="AX157" s="81"/>
     </row>
     <row r="158" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="147" t="s">
+      <c r="A158" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B158" s="139"/>
+      <c r="B158" s="138"/>
       <c r="C158" s="82"/>
-      <c r="D158" s="140" t="s">
+      <c r="D158" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E158" s="139"/>
-      <c r="F158" s="141" t="s">
+      <c r="E158" s="138"/>
+      <c r="F158" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G158" s="139"/>
+      <c r="G158" s="138"/>
       <c r="H158" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I158" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J158" s="142" t="s">
+      <c r="J158" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K158" s="139"/>
+      <c r="K158" s="138"/>
       <c r="L158" s="85"/>
       <c r="M158" s="80"/>
       <c r="N158" s="79"/>
@@ -10523,10 +10527,10 @@
       <c r="AX158" s="81"/>
     </row>
     <row r="159" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="150">
+      <c r="A159" s="149">
         <v>800000</v>
       </c>
-      <c r="B159" s="139"/>
+      <c r="B159" s="138"/>
       <c r="C159" s="86"/>
       <c r="D159" s="86" t="s">
         <v>58</v>
@@ -10593,10 +10597,10 @@
       <c r="AX159" s="81"/>
     </row>
     <row r="160" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="147" t="s">
+      <c r="A160" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B160" s="139"/>
+      <c r="B160" s="138"/>
       <c r="C160" s="92"/>
       <c r="D160" s="92"/>
       <c r="E160" s="92"/>
@@ -10653,8 +10657,8 @@
       <c r="AX160" s="81"/>
     </row>
     <row r="161" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="147"/>
-      <c r="B161" s="139"/>
+      <c r="A161" s="146"/>
+      <c r="B161" s="138"/>
       <c r="C161" s="80"/>
       <c r="D161" s="80"/>
       <c r="E161" s="80"/>
@@ -10705,10 +10709,10 @@
       <c r="AX161" s="81"/>
     </row>
     <row r="162" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="148" t="s">
+      <c r="A162" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B162" s="139"/>
+      <c r="B162" s="138"/>
       <c r="C162" s="97"/>
       <c r="D162" s="97">
         <f>((((D160+E160+G160+H160+I160+K160+L160+F160+J160)*A159)/100)+A159)*100</f>
@@ -10762,10 +10766,10 @@
       <c r="AX162" s="81"/>
     </row>
     <row r="163" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="147" t="s">
+      <c r="A163" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B163" s="139"/>
+      <c r="B163" s="138"/>
       <c r="C163" s="98"/>
       <c r="D163" s="98"/>
       <c r="E163" s="80"/>
@@ -11111,22 +11115,22 @@
       <c r="AX168" s="81"/>
     </row>
     <row r="169" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="149" t="s">
+      <c r="A169" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="B169" s="139"/>
+      <c r="B169" s="138"/>
       <c r="C169" s="77"/>
-      <c r="D169" s="137" t="s">
+      <c r="D169" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E169" s="138"/>
-      <c r="F169" s="138"/>
-      <c r="G169" s="138"/>
-      <c r="H169" s="138"/>
-      <c r="I169" s="138"/>
-      <c r="J169" s="138"/>
-      <c r="K169" s="138"/>
-      <c r="L169" s="139"/>
+      <c r="E169" s="137"/>
+      <c r="F169" s="137"/>
+      <c r="G169" s="137"/>
+      <c r="H169" s="137"/>
+      <c r="I169" s="137"/>
+      <c r="J169" s="137"/>
+      <c r="K169" s="137"/>
+      <c r="L169" s="138"/>
       <c r="M169" s="78">
         <f>IF(E178=TRUE,D178,IF(E177=TRUE,D177,IF(E176=TRUE,D176,IF(E179=TRUE,D179,IF(E180=TRUE,D180,A171*100)))))</f>
         <v>110400000</v>
@@ -11170,29 +11174,29 @@
       <c r="AX169" s="81"/>
     </row>
     <row r="170" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="147" t="s">
+      <c r="A170" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B170" s="139"/>
+      <c r="B170" s="138"/>
       <c r="C170" s="82"/>
-      <c r="D170" s="140" t="s">
+      <c r="D170" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E170" s="139"/>
-      <c r="F170" s="141" t="s">
+      <c r="E170" s="138"/>
+      <c r="F170" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G170" s="139"/>
+      <c r="G170" s="138"/>
       <c r="H170" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I170" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J170" s="142" t="s">
+      <c r="J170" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K170" s="139"/>
+      <c r="K170" s="138"/>
       <c r="L170" s="85"/>
       <c r="M170" s="80"/>
       <c r="N170" s="79"/>
@@ -11234,10 +11238,10 @@
       <c r="AX170" s="81"/>
     </row>
     <row r="171" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="150">
+      <c r="A171" s="149">
         <v>800000</v>
       </c>
-      <c r="B171" s="139"/>
+      <c r="B171" s="138"/>
       <c r="C171" s="86"/>
       <c r="D171" s="86" t="s">
         <v>58</v>
@@ -11304,10 +11308,10 @@
       <c r="AX171" s="81"/>
     </row>
     <row r="172" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="147" t="s">
+      <c r="A172" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B172" s="139"/>
+      <c r="B172" s="138"/>
       <c r="C172" s="92"/>
       <c r="D172" s="92"/>
       <c r="E172" s="92"/>
@@ -11364,8 +11368,8 @@
       <c r="AX172" s="81"/>
     </row>
     <row r="173" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="147"/>
-      <c r="B173" s="139"/>
+      <c r="A173" s="146"/>
+      <c r="B173" s="138"/>
       <c r="C173" s="80"/>
       <c r="D173" s="80"/>
       <c r="E173" s="80"/>
@@ -11416,10 +11420,10 @@
       <c r="AX173" s="81"/>
     </row>
     <row r="174" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="148" t="s">
+      <c r="A174" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B174" s="139"/>
+      <c r="B174" s="138"/>
       <c r="C174" s="97"/>
       <c r="D174" s="97">
         <f>((((D172+E172+G172+H172+I172+K172+L172+F172+J172)*A171)/100)+A171)*100</f>
@@ -11473,10 +11477,10 @@
       <c r="AX174" s="81"/>
     </row>
     <row r="175" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="147" t="s">
+      <c r="A175" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B175" s="139"/>
+      <c r="B175" s="138"/>
       <c r="C175" s="98"/>
       <c r="D175" s="98"/>
       <c r="E175" s="80"/>
@@ -11822,22 +11826,22 @@
       <c r="AX180" s="81"/>
     </row>
     <row r="181" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="149" t="s">
+      <c r="A181" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="B181" s="139"/>
+      <c r="B181" s="138"/>
       <c r="C181" s="77"/>
-      <c r="D181" s="137" t="s">
+      <c r="D181" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E181" s="138"/>
-      <c r="F181" s="138"/>
-      <c r="G181" s="138"/>
-      <c r="H181" s="138"/>
-      <c r="I181" s="138"/>
-      <c r="J181" s="138"/>
-      <c r="K181" s="138"/>
-      <c r="L181" s="139"/>
+      <c r="E181" s="137"/>
+      <c r="F181" s="137"/>
+      <c r="G181" s="137"/>
+      <c r="H181" s="137"/>
+      <c r="I181" s="137"/>
+      <c r="J181" s="137"/>
+      <c r="K181" s="137"/>
+      <c r="L181" s="138"/>
       <c r="M181" s="78">
         <f>IF(E190=TRUE,D190,IF(E189=TRUE,D189,IF(E188=TRUE,D188,IF(E191=TRUE,D191,IF(E192=TRUE,D192,A183*100)))))</f>
         <v>64400000</v>
@@ -11881,29 +11885,29 @@
       <c r="AX181" s="81"/>
     </row>
     <row r="182" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="147" t="s">
+      <c r="A182" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B182" s="139"/>
+      <c r="B182" s="138"/>
       <c r="C182" s="82"/>
-      <c r="D182" s="140" t="s">
+      <c r="D182" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E182" s="139"/>
-      <c r="F182" s="141" t="s">
+      <c r="E182" s="138"/>
+      <c r="F182" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G182" s="139"/>
+      <c r="G182" s="138"/>
       <c r="H182" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I182" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J182" s="142" t="s">
+      <c r="J182" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K182" s="139"/>
+      <c r="K182" s="138"/>
       <c r="L182" s="85"/>
       <c r="M182" s="80"/>
       <c r="N182" s="79"/>
@@ -11945,10 +11949,10 @@
       <c r="AX182" s="81"/>
     </row>
     <row r="183" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="150">
+      <c r="A183" s="149">
         <v>800000</v>
       </c>
-      <c r="B183" s="139"/>
+      <c r="B183" s="138"/>
       <c r="C183" s="86"/>
       <c r="D183" s="86" t="s">
         <v>58</v>
@@ -12015,10 +12019,10 @@
       <c r="AX183" s="81"/>
     </row>
     <row r="184" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="147" t="s">
+      <c r="A184" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B184" s="139"/>
+      <c r="B184" s="138"/>
       <c r="C184" s="92"/>
       <c r="D184" s="92"/>
       <c r="E184" s="92"/>
@@ -12075,8 +12079,8 @@
       <c r="AX184" s="81"/>
     </row>
     <row r="185" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="147"/>
-      <c r="B185" s="139"/>
+      <c r="A185" s="146"/>
+      <c r="B185" s="138"/>
       <c r="C185" s="80"/>
       <c r="D185" s="80"/>
       <c r="E185" s="80"/>
@@ -12127,10 +12131,10 @@
       <c r="AX185" s="81"/>
     </row>
     <row r="186" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="148" t="s">
+      <c r="A186" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B186" s="139"/>
+      <c r="B186" s="138"/>
       <c r="C186" s="97"/>
       <c r="D186" s="97">
         <f>((((D184+E184+G184+H184+I184+K184+L184+F184+J184)*A183)/100)+A183)*100</f>
@@ -12184,10 +12188,10 @@
       <c r="AX186" s="81"/>
     </row>
     <row r="187" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="147" t="s">
+      <c r="A187" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B187" s="139"/>
+      <c r="B187" s="138"/>
       <c r="C187" s="98"/>
       <c r="D187" s="98"/>
       <c r="E187" s="80"/>
@@ -12533,22 +12537,22 @@
       <c r="AX192" s="81"/>
     </row>
     <row r="193" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="149" t="s">
+      <c r="A193" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="B193" s="139"/>
+      <c r="B193" s="138"/>
       <c r="C193" s="77"/>
-      <c r="D193" s="137" t="s">
+      <c r="D193" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E193" s="138"/>
-      <c r="F193" s="138"/>
-      <c r="G193" s="138"/>
-      <c r="H193" s="138"/>
-      <c r="I193" s="138"/>
-      <c r="J193" s="138"/>
-      <c r="K193" s="138"/>
-      <c r="L193" s="139"/>
+      <c r="E193" s="137"/>
+      <c r="F193" s="137"/>
+      <c r="G193" s="137"/>
+      <c r="H193" s="137"/>
+      <c r="I193" s="137"/>
+      <c r="J193" s="137"/>
+      <c r="K193" s="137"/>
+      <c r="L193" s="138"/>
       <c r="M193" s="78">
         <f>IF(E202=TRUE,D202,IF(E201=TRUE,D201,IF(E200=TRUE,D200,IF(E203=TRUE,D203,IF(E204=TRUE,D204,A195*100)))))</f>
         <v>64400000</v>
@@ -12592,29 +12596,29 @@
       <c r="AX193" s="81"/>
     </row>
     <row r="194" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="147" t="s">
+      <c r="A194" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B194" s="139"/>
+      <c r="B194" s="138"/>
       <c r="C194" s="82"/>
-      <c r="D194" s="140" t="s">
+      <c r="D194" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E194" s="139"/>
-      <c r="F194" s="141" t="s">
+      <c r="E194" s="138"/>
+      <c r="F194" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G194" s="139"/>
+      <c r="G194" s="138"/>
       <c r="H194" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I194" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J194" s="142" t="s">
+      <c r="J194" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K194" s="139"/>
+      <c r="K194" s="138"/>
       <c r="L194" s="85"/>
       <c r="M194" s="80"/>
       <c r="N194" s="79"/>
@@ -12656,10 +12660,10 @@
       <c r="AX194" s="81"/>
     </row>
     <row r="195" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="150">
+      <c r="A195" s="149">
         <v>800000</v>
       </c>
-      <c r="B195" s="139"/>
+      <c r="B195" s="138"/>
       <c r="C195" s="86"/>
       <c r="D195" s="86" t="s">
         <v>58</v>
@@ -12726,10 +12730,10 @@
       <c r="AX195" s="81"/>
     </row>
     <row r="196" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="147" t="s">
+      <c r="A196" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B196" s="139"/>
+      <c r="B196" s="138"/>
       <c r="C196" s="92"/>
       <c r="D196" s="92"/>
       <c r="E196" s="92"/>
@@ -12786,8 +12790,8 @@
       <c r="AX196" s="81"/>
     </row>
     <row r="197" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="147"/>
-      <c r="B197" s="139"/>
+      <c r="A197" s="146"/>
+      <c r="B197" s="138"/>
       <c r="C197" s="80"/>
       <c r="D197" s="80"/>
       <c r="E197" s="80"/>
@@ -12838,10 +12842,10 @@
       <c r="AX197" s="81"/>
     </row>
     <row r="198" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="148" t="s">
+      <c r="A198" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B198" s="139"/>
+      <c r="B198" s="138"/>
       <c r="C198" s="97"/>
       <c r="D198" s="97">
         <f>((((D196+E196+G196+H196+I196+K196+L196+F196+J196)*A195)/100)+A195)*100</f>
@@ -12895,10 +12899,10 @@
       <c r="AX198" s="81"/>
     </row>
     <row r="199" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="147" t="s">
+      <c r="A199" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B199" s="139"/>
+      <c r="B199" s="138"/>
       <c r="C199" s="98"/>
       <c r="D199" s="98"/>
       <c r="E199" s="80"/>
@@ -13244,22 +13248,22 @@
       <c r="AX204" s="81"/>
     </row>
     <row r="205" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="149" t="s">
+      <c r="A205" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="B205" s="139"/>
+      <c r="B205" s="138"/>
       <c r="C205" s="77"/>
-      <c r="D205" s="137" t="s">
+      <c r="D205" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E205" s="138"/>
-      <c r="F205" s="138"/>
-      <c r="G205" s="138"/>
-      <c r="H205" s="138"/>
-      <c r="I205" s="138"/>
-      <c r="J205" s="138"/>
-      <c r="K205" s="138"/>
-      <c r="L205" s="139"/>
+      <c r="E205" s="137"/>
+      <c r="F205" s="137"/>
+      <c r="G205" s="137"/>
+      <c r="H205" s="137"/>
+      <c r="I205" s="137"/>
+      <c r="J205" s="137"/>
+      <c r="K205" s="137"/>
+      <c r="L205" s="138"/>
       <c r="M205" s="78">
         <f>IF(E214=TRUE,D214,IF(E213=TRUE,D213,IF(E212=TRUE,D212,IF(E215=TRUE,D215,IF(E216=TRUE,D216,A207*100)))))</f>
         <v>78487500</v>
@@ -13303,29 +13307,29 @@
       <c r="AX205" s="81"/>
     </row>
     <row r="206" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="147" t="s">
+      <c r="A206" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B206" s="139"/>
+      <c r="B206" s="138"/>
       <c r="C206" s="82"/>
-      <c r="D206" s="140" t="s">
+      <c r="D206" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E206" s="139"/>
-      <c r="F206" s="141" t="s">
+      <c r="E206" s="138"/>
+      <c r="F206" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G206" s="139"/>
+      <c r="G206" s="138"/>
       <c r="H206" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I206" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J206" s="142" t="s">
+      <c r="J206" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K206" s="139"/>
+      <c r="K206" s="138"/>
       <c r="L206" s="85"/>
       <c r="M206" s="80"/>
       <c r="N206" s="79"/>
@@ -13367,10 +13371,10 @@
       <c r="AX206" s="81"/>
     </row>
     <row r="207" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="150">
+      <c r="A207" s="149">
         <v>650000</v>
       </c>
-      <c r="B207" s="139"/>
+      <c r="B207" s="138"/>
       <c r="C207" s="86"/>
       <c r="D207" s="86" t="s">
         <v>58</v>
@@ -13437,10 +13441,10 @@
       <c r="AX207" s="81"/>
     </row>
     <row r="208" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="147" t="s">
+      <c r="A208" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B208" s="139"/>
+      <c r="B208" s="138"/>
       <c r="C208" s="92"/>
       <c r="D208" s="92"/>
       <c r="E208" s="92"/>
@@ -13497,8 +13501,8 @@
       <c r="AX208" s="81"/>
     </row>
     <row r="209" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="147"/>
-      <c r="B209" s="139"/>
+      <c r="A209" s="146"/>
+      <c r="B209" s="138"/>
       <c r="C209" s="80"/>
       <c r="D209" s="80"/>
       <c r="E209" s="80"/>
@@ -13549,10 +13553,10 @@
       <c r="AX209" s="81"/>
     </row>
     <row r="210" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="148" t="s">
+      <c r="A210" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B210" s="139"/>
+      <c r="B210" s="138"/>
       <c r="C210" s="97"/>
       <c r="D210" s="97">
         <f>((((D208+E208+G208+H208+I208+K208+L208+F208+J208)*A207)/100)+A207)*100</f>
@@ -13606,10 +13610,10 @@
       <c r="AX210" s="81"/>
     </row>
     <row r="211" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="147" t="s">
+      <c r="A211" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B211" s="139"/>
+      <c r="B211" s="138"/>
       <c r="C211" s="98"/>
       <c r="D211" s="98"/>
       <c r="E211" s="80"/>
@@ -13955,22 +13959,22 @@
       <c r="AX216" s="81"/>
     </row>
     <row r="217" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="149" t="s">
+      <c r="A217" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="B217" s="139"/>
+      <c r="B217" s="138"/>
       <c r="C217" s="77"/>
-      <c r="D217" s="137" t="s">
+      <c r="D217" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E217" s="138"/>
-      <c r="F217" s="138"/>
-      <c r="G217" s="138"/>
-      <c r="H217" s="138"/>
-      <c r="I217" s="138"/>
-      <c r="J217" s="138"/>
-      <c r="K217" s="138"/>
-      <c r="L217" s="139"/>
+      <c r="E217" s="137"/>
+      <c r="F217" s="137"/>
+      <c r="G217" s="137"/>
+      <c r="H217" s="137"/>
+      <c r="I217" s="137"/>
+      <c r="J217" s="137"/>
+      <c r="K217" s="137"/>
+      <c r="L217" s="138"/>
       <c r="M217" s="78">
         <f>IF(E226=TRUE,D226,IF(E225=TRUE,D225,IF(E224=TRUE,D224,IF(E227=TRUE,D227,IF(E228=TRUE,D228,A219*100)))))</f>
         <v>64400000</v>
@@ -14014,29 +14018,29 @@
       <c r="AX217" s="81"/>
     </row>
     <row r="218" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="147" t="s">
+      <c r="A218" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B218" s="139"/>
+      <c r="B218" s="138"/>
       <c r="C218" s="82"/>
-      <c r="D218" s="140" t="s">
+      <c r="D218" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E218" s="139"/>
-      <c r="F218" s="141" t="s">
+      <c r="E218" s="138"/>
+      <c r="F218" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G218" s="139"/>
+      <c r="G218" s="138"/>
       <c r="H218" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I218" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J218" s="142" t="s">
+      <c r="J218" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K218" s="139"/>
+      <c r="K218" s="138"/>
       <c r="L218" s="85"/>
       <c r="M218" s="80"/>
       <c r="N218" s="79"/>
@@ -14078,10 +14082,10 @@
       <c r="AX218" s="81"/>
     </row>
     <row r="219" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="150">
+      <c r="A219" s="149">
         <v>800000</v>
       </c>
-      <c r="B219" s="139"/>
+      <c r="B219" s="138"/>
       <c r="C219" s="86"/>
       <c r="D219" s="86" t="s">
         <v>58</v>
@@ -14148,10 +14152,10 @@
       <c r="AX219" s="81"/>
     </row>
     <row r="220" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="147" t="s">
+      <c r="A220" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B220" s="139"/>
+      <c r="B220" s="138"/>
       <c r="C220" s="92"/>
       <c r="D220" s="92"/>
       <c r="E220" s="92"/>
@@ -14208,8 +14212,8 @@
       <c r="AX220" s="81"/>
     </row>
     <row r="221" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="147"/>
-      <c r="B221" s="139"/>
+      <c r="A221" s="146"/>
+      <c r="B221" s="138"/>
       <c r="C221" s="80"/>
       <c r="D221" s="80"/>
       <c r="E221" s="80"/>
@@ -14260,10 +14264,10 @@
       <c r="AX221" s="81"/>
     </row>
     <row r="222" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="148" t="s">
+      <c r="A222" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B222" s="139"/>
+      <c r="B222" s="138"/>
       <c r="C222" s="97"/>
       <c r="D222" s="97">
         <f>((((D220+E220+G220+H220+I220+K220+L220+F220+J220)*A219)/100)+A219)*100</f>
@@ -14317,10 +14321,10 @@
       <c r="AX222" s="81"/>
     </row>
     <row r="223" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="147" t="s">
+      <c r="A223" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B223" s="139"/>
+      <c r="B223" s="138"/>
       <c r="C223" s="98"/>
       <c r="D223" s="98"/>
       <c r="E223" s="80"/>
@@ -14666,22 +14670,22 @@
       <c r="AX228" s="81"/>
     </row>
     <row r="229" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="149" t="s">
+      <c r="A229" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="B229" s="139"/>
+      <c r="B229" s="138"/>
       <c r="C229" s="77"/>
-      <c r="D229" s="137" t="s">
+      <c r="D229" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E229" s="138"/>
-      <c r="F229" s="138"/>
-      <c r="G229" s="138"/>
-      <c r="H229" s="138"/>
-      <c r="I229" s="138"/>
-      <c r="J229" s="138"/>
-      <c r="K229" s="138"/>
-      <c r="L229" s="139"/>
+      <c r="E229" s="137"/>
+      <c r="F229" s="137"/>
+      <c r="G229" s="137"/>
+      <c r="H229" s="137"/>
+      <c r="I229" s="137"/>
+      <c r="J229" s="137"/>
+      <c r="K229" s="137"/>
+      <c r="L229" s="138"/>
       <c r="M229" s="78">
         <f>IF(E238=TRUE,D238,IF(E237=TRUE,D237,IF(E236=TRUE,D236,IF(E239=TRUE,D239,IF(E240=TRUE,D240,A231*100)))))</f>
         <v>96600000</v>
@@ -14725,29 +14729,29 @@
       <c r="AX229" s="81"/>
     </row>
     <row r="230" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="147" t="s">
+      <c r="A230" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B230" s="139"/>
+      <c r="B230" s="138"/>
       <c r="C230" s="82"/>
-      <c r="D230" s="140" t="s">
+      <c r="D230" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E230" s="139"/>
-      <c r="F230" s="141" t="s">
+      <c r="E230" s="138"/>
+      <c r="F230" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G230" s="139"/>
+      <c r="G230" s="138"/>
       <c r="H230" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I230" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J230" s="142" t="s">
+      <c r="J230" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K230" s="139"/>
+      <c r="K230" s="138"/>
       <c r="L230" s="85"/>
       <c r="M230" s="80"/>
       <c r="N230" s="79"/>
@@ -14789,10 +14793,10 @@
       <c r="AX230" s="81"/>
     </row>
     <row r="231" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="150">
+      <c r="A231" s="149">
         <v>800000</v>
       </c>
-      <c r="B231" s="139"/>
+      <c r="B231" s="138"/>
       <c r="C231" s="86"/>
       <c r="D231" s="86" t="s">
         <v>58</v>
@@ -14859,10 +14863,10 @@
       <c r="AX231" s="81"/>
     </row>
     <row r="232" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="147" t="s">
+      <c r="A232" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B232" s="139"/>
+      <c r="B232" s="138"/>
       <c r="C232" s="92"/>
       <c r="D232" s="92"/>
       <c r="E232" s="92"/>
@@ -14919,8 +14923,8 @@
       <c r="AX232" s="81"/>
     </row>
     <row r="233" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="147"/>
-      <c r="B233" s="139"/>
+      <c r="A233" s="146"/>
+      <c r="B233" s="138"/>
       <c r="C233" s="80"/>
       <c r="D233" s="80"/>
       <c r="E233" s="80"/>
@@ -14971,10 +14975,10 @@
       <c r="AX233" s="81"/>
     </row>
     <row r="234" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="148" t="s">
+      <c r="A234" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B234" s="139"/>
+      <c r="B234" s="138"/>
       <c r="C234" s="97"/>
       <c r="D234" s="97">
         <f>((((D232+E232+G232+H232+I232+K232+L232+F232+J232)*A231)/100)+A231)*100</f>
@@ -15028,10 +15032,10 @@
       <c r="AX234" s="81"/>
     </row>
     <row r="235" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="147" t="s">
+      <c r="A235" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B235" s="139"/>
+      <c r="B235" s="138"/>
       <c r="C235" s="98"/>
       <c r="D235" s="98"/>
       <c r="E235" s="80"/>
@@ -15377,22 +15381,22 @@
       <c r="AX240" s="81"/>
     </row>
     <row r="241" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="149" t="s">
+      <c r="A241" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="B241" s="139"/>
+      <c r="B241" s="138"/>
       <c r="C241" s="77"/>
-      <c r="D241" s="137" t="s">
+      <c r="D241" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E241" s="138"/>
-      <c r="F241" s="138"/>
-      <c r="G241" s="138"/>
-      <c r="H241" s="138"/>
-      <c r="I241" s="138"/>
-      <c r="J241" s="138"/>
-      <c r="K241" s="138"/>
-      <c r="L241" s="139"/>
+      <c r="E241" s="137"/>
+      <c r="F241" s="137"/>
+      <c r="G241" s="137"/>
+      <c r="H241" s="137"/>
+      <c r="I241" s="137"/>
+      <c r="J241" s="137"/>
+      <c r="K241" s="137"/>
+      <c r="L241" s="138"/>
       <c r="M241" s="78">
         <f>IF(E250=TRUE,D250,IF(E249=TRUE,D249,IF(E248=TRUE,D248,IF(E251=TRUE,D251,IF(E252=TRUE,D252,A243*100)))))</f>
         <v>78200000</v>
@@ -15436,29 +15440,29 @@
       <c r="AX241" s="81"/>
     </row>
     <row r="242" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="147" t="s">
+      <c r="A242" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B242" s="139"/>
+      <c r="B242" s="138"/>
       <c r="C242" s="82"/>
-      <c r="D242" s="140" t="s">
+      <c r="D242" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E242" s="139"/>
-      <c r="F242" s="141" t="s">
+      <c r="E242" s="138"/>
+      <c r="F242" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G242" s="139"/>
+      <c r="G242" s="138"/>
       <c r="H242" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I242" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J242" s="142" t="s">
+      <c r="J242" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K242" s="139"/>
+      <c r="K242" s="138"/>
       <c r="L242" s="85"/>
       <c r="M242" s="80"/>
       <c r="N242" s="79"/>
@@ -15500,10 +15504,10 @@
       <c r="AX242" s="81"/>
     </row>
     <row r="243" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="150">
+      <c r="A243" s="149">
         <v>800000</v>
       </c>
-      <c r="B243" s="139"/>
+      <c r="B243" s="138"/>
       <c r="C243" s="86"/>
       <c r="D243" s="86" t="s">
         <v>58</v>
@@ -15570,10 +15574,10 @@
       <c r="AX243" s="81"/>
     </row>
     <row r="244" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="147" t="s">
+      <c r="A244" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B244" s="139"/>
+      <c r="B244" s="138"/>
       <c r="C244" s="92"/>
       <c r="D244" s="92"/>
       <c r="E244" s="92"/>
@@ -15630,8 +15634,8 @@
       <c r="AX244" s="81"/>
     </row>
     <row r="245" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="147"/>
-      <c r="B245" s="139"/>
+      <c r="A245" s="146"/>
+      <c r="B245" s="138"/>
       <c r="C245" s="80"/>
       <c r="D245" s="80"/>
       <c r="E245" s="80"/>
@@ -15682,10 +15686,10 @@
       <c r="AX245" s="81"/>
     </row>
     <row r="246" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="148" t="s">
+      <c r="A246" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B246" s="139"/>
+      <c r="B246" s="138"/>
       <c r="C246" s="97"/>
       <c r="D246" s="97">
         <f>((((D244+E244+G244+H244+I244+K244+L244+F244+J244)*A243)/100)+A243)*100</f>
@@ -15739,10 +15743,10 @@
       <c r="AX246" s="81"/>
     </row>
     <row r="247" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="147" t="s">
+      <c r="A247" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B247" s="139"/>
+      <c r="B247" s="138"/>
       <c r="C247" s="98"/>
       <c r="D247" s="98"/>
       <c r="E247" s="80"/>
@@ -16088,22 +16092,22 @@
       <c r="AX252" s="81"/>
     </row>
     <row r="253" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="149" t="s">
+      <c r="A253" s="148" t="s">
         <v>83</v>
       </c>
-      <c r="B253" s="139"/>
+      <c r="B253" s="138"/>
       <c r="C253" s="77"/>
-      <c r="D253" s="137" t="s">
+      <c r="D253" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E253" s="138"/>
-      <c r="F253" s="138"/>
-      <c r="G253" s="138"/>
-      <c r="H253" s="138"/>
-      <c r="I253" s="138"/>
-      <c r="J253" s="138"/>
-      <c r="K253" s="138"/>
-      <c r="L253" s="139"/>
+      <c r="E253" s="137"/>
+      <c r="F253" s="137"/>
+      <c r="G253" s="137"/>
+      <c r="H253" s="137"/>
+      <c r="I253" s="137"/>
+      <c r="J253" s="137"/>
+      <c r="K253" s="137"/>
+      <c r="L253" s="138"/>
       <c r="M253" s="78">
         <f>IF(E262=TRUE,D262,IF(E261=TRUE,D261,IF(E260=TRUE,D260,IF(E263=TRUE,D263,IF(E264=TRUE,D264,A255*100)))))</f>
         <v>1104828</v>
@@ -16147,29 +16151,29 @@
       <c r="AX253" s="81"/>
     </row>
     <row r="254" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="147" t="s">
+      <c r="A254" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B254" s="139"/>
+      <c r="B254" s="138"/>
       <c r="C254" s="82"/>
-      <c r="D254" s="140" t="s">
+      <c r="D254" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E254" s="139"/>
-      <c r="F254" s="141" t="s">
+      <c r="E254" s="138"/>
+      <c r="F254" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G254" s="139"/>
+      <c r="G254" s="138"/>
       <c r="H254" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I254" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J254" s="142" t="s">
+      <c r="J254" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K254" s="139"/>
+      <c r="K254" s="138"/>
       <c r="L254" s="85"/>
       <c r="M254" s="80"/>
       <c r="N254" s="79"/>
@@ -16211,10 +16215,10 @@
       <c r="AX254" s="81"/>
     </row>
     <row r="255" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="150">
+      <c r="A255" s="149">
         <v>8006</v>
       </c>
-      <c r="B255" s="139"/>
+      <c r="B255" s="138"/>
       <c r="C255" s="86"/>
       <c r="D255" s="86" t="s">
         <v>58</v>
@@ -16281,10 +16285,10 @@
       <c r="AX255" s="81"/>
     </row>
     <row r="256" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="147" t="s">
+      <c r="A256" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B256" s="139"/>
+      <c r="B256" s="138"/>
       <c r="C256" s="92"/>
       <c r="D256" s="92"/>
       <c r="E256" s="92"/>
@@ -16341,8 +16345,8 @@
       <c r="AX256" s="81"/>
     </row>
     <row r="257" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="147"/>
-      <c r="B257" s="139"/>
+      <c r="A257" s="146"/>
+      <c r="B257" s="138"/>
       <c r="C257" s="80"/>
       <c r="D257" s="80"/>
       <c r="E257" s="80"/>
@@ -16393,10 +16397,10 @@
       <c r="AX257" s="81"/>
     </row>
     <row r="258" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="148" t="s">
+      <c r="A258" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B258" s="139"/>
+      <c r="B258" s="138"/>
       <c r="C258" s="97"/>
       <c r="D258" s="97">
         <f>((((D256+E256+G256+H256+I256+K256+L256+F256+J256)*A255)/100)+A255)*100</f>
@@ -16450,10 +16454,10 @@
       <c r="AX258" s="81"/>
     </row>
     <row r="259" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="147" t="s">
+      <c r="A259" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B259" s="139"/>
+      <c r="B259" s="138"/>
       <c r="C259" s="98"/>
       <c r="D259" s="98"/>
       <c r="E259" s="80"/>
@@ -16799,22 +16803,22 @@
       <c r="AX264" s="81"/>
     </row>
     <row r="265" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A265" s="149" t="s">
+      <c r="A265" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="B265" s="139"/>
+      <c r="B265" s="138"/>
       <c r="C265" s="77"/>
-      <c r="D265" s="137" t="s">
+      <c r="D265" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E265" s="138"/>
-      <c r="F265" s="138"/>
-      <c r="G265" s="138"/>
-      <c r="H265" s="138"/>
-      <c r="I265" s="138"/>
-      <c r="J265" s="138"/>
-      <c r="K265" s="138"/>
-      <c r="L265" s="139"/>
+      <c r="E265" s="137"/>
+      <c r="F265" s="137"/>
+      <c r="G265" s="137"/>
+      <c r="H265" s="137"/>
+      <c r="I265" s="137"/>
+      <c r="J265" s="137"/>
+      <c r="K265" s="137"/>
+      <c r="L265" s="138"/>
       <c r="M265" s="78">
         <f>IF(E274=TRUE,D274,IF(E273=TRUE,D273,IF(E272=TRUE,D272,IF(E275=TRUE,D275,IF(E276=TRUE,D276,A267*100)))))</f>
         <v>64400000</v>
@@ -16858,29 +16862,29 @@
       <c r="AX265" s="81"/>
     </row>
     <row r="266" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="147" t="s">
+      <c r="A266" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B266" s="139"/>
+      <c r="B266" s="138"/>
       <c r="C266" s="82"/>
-      <c r="D266" s="140" t="s">
+      <c r="D266" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E266" s="139"/>
-      <c r="F266" s="141" t="s">
+      <c r="E266" s="138"/>
+      <c r="F266" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G266" s="139"/>
+      <c r="G266" s="138"/>
       <c r="H266" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I266" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J266" s="142" t="s">
+      <c r="J266" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K266" s="139"/>
+      <c r="K266" s="138"/>
       <c r="L266" s="85"/>
       <c r="M266" s="80"/>
       <c r="N266" s="79"/>
@@ -16922,10 +16926,10 @@
       <c r="AX266" s="81"/>
     </row>
     <row r="267" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="150">
+      <c r="A267" s="149">
         <v>800000</v>
       </c>
-      <c r="B267" s="139"/>
+      <c r="B267" s="138"/>
       <c r="C267" s="86"/>
       <c r="D267" s="86" t="s">
         <v>58</v>
@@ -16992,10 +16996,10 @@
       <c r="AX267" s="81"/>
     </row>
     <row r="268" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="147" t="s">
+      <c r="A268" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B268" s="139"/>
+      <c r="B268" s="138"/>
       <c r="C268" s="92"/>
       <c r="D268" s="92"/>
       <c r="E268" s="92"/>
@@ -17052,8 +17056,8 @@
       <c r="AX268" s="81"/>
     </row>
     <row r="269" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="147"/>
-      <c r="B269" s="139"/>
+      <c r="A269" s="146"/>
+      <c r="B269" s="138"/>
       <c r="C269" s="80"/>
       <c r="D269" s="80"/>
       <c r="E269" s="80"/>
@@ -17104,10 +17108,10 @@
       <c r="AX269" s="81"/>
     </row>
     <row r="270" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="148" t="s">
+      <c r="A270" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B270" s="139"/>
+      <c r="B270" s="138"/>
       <c r="C270" s="97"/>
       <c r="D270" s="97">
         <f>((((D268+E268+G268+H268+I268+K268+L268+F268+J268)*A267)/100)+A267)*100</f>
@@ -17161,10 +17165,10 @@
       <c r="AX270" s="81"/>
     </row>
     <row r="271" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="147" t="s">
+      <c r="A271" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B271" s="139"/>
+      <c r="B271" s="138"/>
       <c r="C271" s="98"/>
       <c r="D271" s="98"/>
       <c r="E271" s="80"/>
@@ -17510,22 +17514,22 @@
       <c r="AX276" s="81"/>
     </row>
     <row r="277" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="149" t="s">
+      <c r="A277" s="148" t="s">
         <v>85</v>
       </c>
-      <c r="B277" s="139"/>
+      <c r="B277" s="138"/>
       <c r="C277" s="77"/>
-      <c r="D277" s="137" t="s">
+      <c r="D277" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E277" s="138"/>
-      <c r="F277" s="138"/>
-      <c r="G277" s="138"/>
-      <c r="H277" s="138"/>
-      <c r="I277" s="138"/>
-      <c r="J277" s="138"/>
-      <c r="K277" s="138"/>
-      <c r="L277" s="139"/>
+      <c r="E277" s="137"/>
+      <c r="F277" s="137"/>
+      <c r="G277" s="137"/>
+      <c r="H277" s="137"/>
+      <c r="I277" s="137"/>
+      <c r="J277" s="137"/>
+      <c r="K277" s="137"/>
+      <c r="L277" s="138"/>
       <c r="M277" s="78">
         <f>IF(E286=TRUE,D286,IF(E285=TRUE,D285,IF(E284=TRUE,D284,IF(E287=TRUE,D287,IF(E288=TRUE,D288,A279*100)))))</f>
         <v>110400000</v>
@@ -17569,29 +17573,29 @@
       <c r="AX277" s="81"/>
     </row>
     <row r="278" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="147" t="s">
+      <c r="A278" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B278" s="139"/>
+      <c r="B278" s="138"/>
       <c r="C278" s="82"/>
-      <c r="D278" s="140" t="s">
+      <c r="D278" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E278" s="139"/>
-      <c r="F278" s="141" t="s">
+      <c r="E278" s="138"/>
+      <c r="F278" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G278" s="139"/>
+      <c r="G278" s="138"/>
       <c r="H278" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I278" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J278" s="142" t="s">
+      <c r="J278" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K278" s="139"/>
+      <c r="K278" s="138"/>
       <c r="L278" s="85"/>
       <c r="M278" s="80"/>
       <c r="N278" s="79"/>
@@ -17633,10 +17637,10 @@
       <c r="AX278" s="81"/>
     </row>
     <row r="279" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="150">
+      <c r="A279" s="149">
         <v>800000</v>
       </c>
-      <c r="B279" s="139"/>
+      <c r="B279" s="138"/>
       <c r="C279" s="86"/>
       <c r="D279" s="86" t="s">
         <v>58</v>
@@ -17703,10 +17707,10 @@
       <c r="AX279" s="81"/>
     </row>
     <row r="280" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="147" t="s">
+      <c r="A280" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B280" s="139"/>
+      <c r="B280" s="138"/>
       <c r="C280" s="92"/>
       <c r="D280" s="92"/>
       <c r="E280" s="92"/>
@@ -17763,8 +17767,8 @@
       <c r="AX280" s="81"/>
     </row>
     <row r="281" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="147"/>
-      <c r="B281" s="139"/>
+      <c r="A281" s="146"/>
+      <c r="B281" s="138"/>
       <c r="C281" s="80"/>
       <c r="D281" s="80"/>
       <c r="E281" s="80"/>
@@ -17815,10 +17819,10 @@
       <c r="AX281" s="81"/>
     </row>
     <row r="282" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="148" t="s">
+      <c r="A282" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B282" s="139"/>
+      <c r="B282" s="138"/>
       <c r="C282" s="97"/>
       <c r="D282" s="97">
         <f>((((D280+E280+G280+H280+I280+K280+L280+F280+J280)*A279)/100)+A279)*100</f>
@@ -17872,10 +17876,10 @@
       <c r="AX282" s="81"/>
     </row>
     <row r="283" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="147" t="s">
+      <c r="A283" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B283" s="139"/>
+      <c r="B283" s="138"/>
       <c r="C283" s="98"/>
       <c r="D283" s="98"/>
       <c r="E283" s="80"/>
@@ -18221,22 +18225,22 @@
       <c r="AX288" s="81"/>
     </row>
     <row r="289" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="149" t="s">
+      <c r="A289" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="B289" s="139"/>
+      <c r="B289" s="138"/>
       <c r="C289" s="77"/>
-      <c r="D289" s="137" t="s">
+      <c r="D289" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E289" s="138"/>
-      <c r="F289" s="138"/>
-      <c r="G289" s="138"/>
-      <c r="H289" s="138"/>
-      <c r="I289" s="138"/>
-      <c r="J289" s="138"/>
-      <c r="K289" s="138"/>
-      <c r="L289" s="139"/>
+      <c r="E289" s="137"/>
+      <c r="F289" s="137"/>
+      <c r="G289" s="137"/>
+      <c r="H289" s="137"/>
+      <c r="I289" s="137"/>
+      <c r="J289" s="137"/>
+      <c r="K289" s="137"/>
+      <c r="L289" s="138"/>
       <c r="M289" s="78">
         <f>IF(E298=TRUE,D298,IF(E297=TRUE,D297,IF(E296=TRUE,D296,IF(E299=TRUE,D299,IF(E300=TRUE,D300,A291*100)))))</f>
         <v>64400000</v>
@@ -18280,29 +18284,29 @@
       <c r="AX289" s="81"/>
     </row>
     <row r="290" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A290" s="147" t="s">
+      <c r="A290" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B290" s="139"/>
+      <c r="B290" s="138"/>
       <c r="C290" s="82"/>
-      <c r="D290" s="140" t="s">
+      <c r="D290" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E290" s="139"/>
-      <c r="F290" s="141" t="s">
+      <c r="E290" s="138"/>
+      <c r="F290" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G290" s="139"/>
+      <c r="G290" s="138"/>
       <c r="H290" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I290" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J290" s="142" t="s">
+      <c r="J290" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K290" s="139"/>
+      <c r="K290" s="138"/>
       <c r="L290" s="85"/>
       <c r="M290" s="80"/>
       <c r="N290" s="79"/>
@@ -18344,10 +18348,10 @@
       <c r="AX290" s="81"/>
     </row>
     <row r="291" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A291" s="150">
+      <c r="A291" s="149">
         <v>800000</v>
       </c>
-      <c r="B291" s="139"/>
+      <c r="B291" s="138"/>
       <c r="C291" s="86"/>
       <c r="D291" s="86" t="s">
         <v>58</v>
@@ -18414,10 +18418,10 @@
       <c r="AX291" s="81"/>
     </row>
     <row r="292" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="147" t="s">
+      <c r="A292" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B292" s="139"/>
+      <c r="B292" s="138"/>
       <c r="C292" s="92"/>
       <c r="D292" s="92"/>
       <c r="E292" s="92"/>
@@ -18474,8 +18478,8 @@
       <c r="AX292" s="81"/>
     </row>
     <row r="293" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="147"/>
-      <c r="B293" s="139"/>
+      <c r="A293" s="146"/>
+      <c r="B293" s="138"/>
       <c r="C293" s="80"/>
       <c r="D293" s="80"/>
       <c r="E293" s="80"/>
@@ -18526,10 +18530,10 @@
       <c r="AX293" s="81"/>
     </row>
     <row r="294" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A294" s="148" t="s">
+      <c r="A294" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B294" s="139"/>
+      <c r="B294" s="138"/>
       <c r="C294" s="97"/>
       <c r="D294" s="97">
         <f>((((D292+E292+G292+H292+I292+K292+L292+F292+J292)*A291)/100)+A291)*100</f>
@@ -18583,10 +18587,10 @@
       <c r="AX294" s="81"/>
     </row>
     <row r="295" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="147" t="s">
+      <c r="A295" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B295" s="139"/>
+      <c r="B295" s="138"/>
       <c r="C295" s="98"/>
       <c r="D295" s="98"/>
       <c r="E295" s="80"/>
@@ -18932,22 +18936,22 @@
       <c r="AX300" s="81"/>
     </row>
     <row r="301" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A301" s="149" t="s">
+      <c r="A301" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B301" s="139"/>
+      <c r="B301" s="138"/>
       <c r="C301" s="77"/>
-      <c r="D301" s="137" t="s">
+      <c r="D301" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E301" s="138"/>
-      <c r="F301" s="138"/>
-      <c r="G301" s="138"/>
-      <c r="H301" s="138"/>
-      <c r="I301" s="138"/>
-      <c r="J301" s="138"/>
-      <c r="K301" s="138"/>
-      <c r="L301" s="139"/>
+      <c r="E301" s="137"/>
+      <c r="F301" s="137"/>
+      <c r="G301" s="137"/>
+      <c r="H301" s="137"/>
+      <c r="I301" s="137"/>
+      <c r="J301" s="137"/>
+      <c r="K301" s="137"/>
+      <c r="L301" s="138"/>
       <c r="M301" s="78">
         <f>IF(E310=TRUE,D310,IF(E309=TRUE,D309,IF(E308=TRUE,D308,IF(E311=TRUE,D311,IF(E312=TRUE,D312,A303*100)))))</f>
         <v>110400000</v>
@@ -18991,29 +18995,29 @@
       <c r="AX301" s="81"/>
     </row>
     <row r="302" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="147" t="s">
+      <c r="A302" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B302" s="139"/>
+      <c r="B302" s="138"/>
       <c r="C302" s="82"/>
-      <c r="D302" s="140" t="s">
+      <c r="D302" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E302" s="139"/>
-      <c r="F302" s="141" t="s">
+      <c r="E302" s="138"/>
+      <c r="F302" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G302" s="139"/>
+      <c r="G302" s="138"/>
       <c r="H302" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I302" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J302" s="142" t="s">
+      <c r="J302" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K302" s="139"/>
+      <c r="K302" s="138"/>
       <c r="L302" s="85"/>
       <c r="M302" s="80"/>
       <c r="N302" s="79"/>
@@ -19055,10 +19059,10 @@
       <c r="AX302" s="81"/>
     </row>
     <row r="303" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="150">
+      <c r="A303" s="149">
         <v>800000</v>
       </c>
-      <c r="B303" s="139"/>
+      <c r="B303" s="138"/>
       <c r="C303" s="86"/>
       <c r="D303" s="86" t="s">
         <v>58</v>
@@ -19125,10 +19129,10 @@
       <c r="AX303" s="81"/>
     </row>
     <row r="304" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="147" t="s">
+      <c r="A304" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B304" s="139"/>
+      <c r="B304" s="138"/>
       <c r="C304" s="92"/>
       <c r="D304" s="92"/>
       <c r="E304" s="92"/>
@@ -19185,8 +19189,8 @@
       <c r="AX304" s="81"/>
     </row>
     <row r="305" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="147"/>
-      <c r="B305" s="139"/>
+      <c r="A305" s="146"/>
+      <c r="B305" s="138"/>
       <c r="C305" s="80"/>
       <c r="D305" s="80"/>
       <c r="E305" s="80"/>
@@ -19237,10 +19241,10 @@
       <c r="AX305" s="81"/>
     </row>
     <row r="306" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="148" t="s">
+      <c r="A306" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B306" s="139"/>
+      <c r="B306" s="138"/>
       <c r="C306" s="97"/>
       <c r="D306" s="97">
         <f>((((D304+E304+G304+H304+I304+K304+L304+F304+J304)*A303)/100)+A303)*100</f>
@@ -19294,10 +19298,10 @@
       <c r="AX306" s="81"/>
     </row>
     <row r="307" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="147" t="s">
+      <c r="A307" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B307" s="139"/>
+      <c r="B307" s="138"/>
       <c r="C307" s="98"/>
       <c r="D307" s="98"/>
       <c r="E307" s="80"/>
@@ -19643,22 +19647,22 @@
       <c r="AX312" s="81"/>
     </row>
     <row r="313" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="149" t="s">
+      <c r="A313" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="B313" s="139"/>
+      <c r="B313" s="138"/>
       <c r="C313" s="77"/>
-      <c r="D313" s="137" t="s">
+      <c r="D313" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E313" s="138"/>
-      <c r="F313" s="138"/>
-      <c r="G313" s="138"/>
-      <c r="H313" s="138"/>
-      <c r="I313" s="138"/>
-      <c r="J313" s="138"/>
-      <c r="K313" s="138"/>
-      <c r="L313" s="139"/>
+      <c r="E313" s="137"/>
+      <c r="F313" s="137"/>
+      <c r="G313" s="137"/>
+      <c r="H313" s="137"/>
+      <c r="I313" s="137"/>
+      <c r="J313" s="137"/>
+      <c r="K313" s="137"/>
+      <c r="L313" s="138"/>
       <c r="M313" s="78">
         <f>IF(E322=TRUE,D322,IF(E321=TRUE,D321,IF(E320=TRUE,D320,IF(E323=TRUE,D323,IF(E324=TRUE,D324,A315*100)))))</f>
         <v>110400000</v>
@@ -19702,29 +19706,29 @@
       <c r="AX313" s="81"/>
     </row>
     <row r="314" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A314" s="147" t="s">
+      <c r="A314" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B314" s="139"/>
+      <c r="B314" s="138"/>
       <c r="C314" s="82"/>
-      <c r="D314" s="140" t="s">
+      <c r="D314" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E314" s="139"/>
-      <c r="F314" s="141" t="s">
+      <c r="E314" s="138"/>
+      <c r="F314" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G314" s="139"/>
+      <c r="G314" s="138"/>
       <c r="H314" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I314" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J314" s="142" t="s">
+      <c r="J314" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K314" s="139"/>
+      <c r="K314" s="138"/>
       <c r="L314" s="85"/>
       <c r="M314" s="80"/>
       <c r="N314" s="79"/>
@@ -19766,10 +19770,10 @@
       <c r="AX314" s="81"/>
     </row>
     <row r="315" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="150">
+      <c r="A315" s="149">
         <v>800000</v>
       </c>
-      <c r="B315" s="139"/>
+      <c r="B315" s="138"/>
       <c r="C315" s="86"/>
       <c r="D315" s="86" t="s">
         <v>58</v>
@@ -19836,10 +19840,10 @@
       <c r="AX315" s="81"/>
     </row>
     <row r="316" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A316" s="147" t="s">
+      <c r="A316" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B316" s="139"/>
+      <c r="B316" s="138"/>
       <c r="C316" s="92"/>
       <c r="D316" s="92"/>
       <c r="E316" s="92"/>
@@ -19896,8 +19900,8 @@
       <c r="AX316" s="81"/>
     </row>
     <row r="317" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="147"/>
-      <c r="B317" s="139"/>
+      <c r="A317" s="146"/>
+      <c r="B317" s="138"/>
       <c r="C317" s="80"/>
       <c r="D317" s="80"/>
       <c r="E317" s="80"/>
@@ -19948,10 +19952,10 @@
       <c r="AX317" s="81"/>
     </row>
     <row r="318" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="148" t="s">
+      <c r="A318" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B318" s="139"/>
+      <c r="B318" s="138"/>
       <c r="C318" s="97"/>
       <c r="D318" s="97">
         <f>((((D316+E316+G316+H316+I316+K316+L316+F316+J316)*A315)/100)+A315)*100</f>
@@ -20005,10 +20009,10 @@
       <c r="AX318" s="81"/>
     </row>
     <row r="319" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A319" s="147" t="s">
+      <c r="A319" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B319" s="139"/>
+      <c r="B319" s="138"/>
       <c r="C319" s="98"/>
       <c r="D319" s="98"/>
       <c r="E319" s="80"/>
@@ -20354,22 +20358,22 @@
       <c r="AX324" s="81"/>
     </row>
     <row r="325" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="149" t="s">
+      <c r="A325" s="148" t="s">
         <v>89</v>
       </c>
-      <c r="B325" s="139"/>
+      <c r="B325" s="138"/>
       <c r="C325" s="77"/>
-      <c r="D325" s="137" t="s">
+      <c r="D325" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E325" s="138"/>
-      <c r="F325" s="138"/>
-      <c r="G325" s="138"/>
-      <c r="H325" s="138"/>
-      <c r="I325" s="138"/>
-      <c r="J325" s="138"/>
-      <c r="K325" s="138"/>
-      <c r="L325" s="139"/>
+      <c r="E325" s="137"/>
+      <c r="F325" s="137"/>
+      <c r="G325" s="137"/>
+      <c r="H325" s="137"/>
+      <c r="I325" s="137"/>
+      <c r="J325" s="137"/>
+      <c r="K325" s="137"/>
+      <c r="L325" s="138"/>
       <c r="M325" s="78">
         <f>IF(E334=TRUE,D334,IF(E333=TRUE,D333,IF(E332=TRUE,D332,IF(E335=TRUE,D335,IF(E336=TRUE,D336,A327*100)))))</f>
         <v>110400000</v>
@@ -20413,29 +20417,29 @@
       <c r="AX325" s="81"/>
     </row>
     <row r="326" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="147" t="s">
+      <c r="A326" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B326" s="139"/>
+      <c r="B326" s="138"/>
       <c r="C326" s="82"/>
-      <c r="D326" s="140" t="s">
+      <c r="D326" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E326" s="139"/>
-      <c r="F326" s="141" t="s">
+      <c r="E326" s="138"/>
+      <c r="F326" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G326" s="139"/>
+      <c r="G326" s="138"/>
       <c r="H326" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I326" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J326" s="142" t="s">
+      <c r="J326" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K326" s="139"/>
+      <c r="K326" s="138"/>
       <c r="L326" s="85"/>
       <c r="M326" s="80"/>
       <c r="N326" s="79"/>
@@ -20477,10 +20481,10 @@
       <c r="AX326" s="81"/>
     </row>
     <row r="327" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A327" s="150">
+      <c r="A327" s="149">
         <v>800000</v>
       </c>
-      <c r="B327" s="139"/>
+      <c r="B327" s="138"/>
       <c r="C327" s="86"/>
       <c r="D327" s="86" t="s">
         <v>58</v>
@@ -20547,10 +20551,10 @@
       <c r="AX327" s="81"/>
     </row>
     <row r="328" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="147" t="s">
+      <c r="A328" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B328" s="139"/>
+      <c r="B328" s="138"/>
       <c r="C328" s="92"/>
       <c r="D328" s="92"/>
       <c r="E328" s="92"/>
@@ -20607,8 +20611,8 @@
       <c r="AX328" s="81"/>
     </row>
     <row r="329" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="147"/>
-      <c r="B329" s="139"/>
+      <c r="A329" s="146"/>
+      <c r="B329" s="138"/>
       <c r="C329" s="80"/>
       <c r="D329" s="80"/>
       <c r="E329" s="80"/>
@@ -20659,10 +20663,10 @@
       <c r="AX329" s="81"/>
     </row>
     <row r="330" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A330" s="148" t="s">
+      <c r="A330" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B330" s="139"/>
+      <c r="B330" s="138"/>
       <c r="C330" s="97"/>
       <c r="D330" s="97">
         <f>((((D328+E328+G328+H328+I328+K328+L328+F328+J328)*A327)/100)+A327)*100</f>
@@ -20716,10 +20720,10 @@
       <c r="AX330" s="81"/>
     </row>
     <row r="331" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A331" s="147" t="s">
+      <c r="A331" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B331" s="139"/>
+      <c r="B331" s="138"/>
       <c r="C331" s="98"/>
       <c r="D331" s="98"/>
       <c r="E331" s="80"/>
@@ -21065,22 +21069,22 @@
       <c r="AX336" s="81"/>
     </row>
     <row r="337" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A337" s="149" t="s">
+      <c r="A337" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="B337" s="139"/>
+      <c r="B337" s="138"/>
       <c r="C337" s="77"/>
-      <c r="D337" s="137" t="s">
+      <c r="D337" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E337" s="138"/>
-      <c r="F337" s="138"/>
-      <c r="G337" s="138"/>
-      <c r="H337" s="138"/>
-      <c r="I337" s="138"/>
-      <c r="J337" s="138"/>
-      <c r="K337" s="138"/>
-      <c r="L337" s="139"/>
+      <c r="E337" s="137"/>
+      <c r="F337" s="137"/>
+      <c r="G337" s="137"/>
+      <c r="H337" s="137"/>
+      <c r="I337" s="137"/>
+      <c r="J337" s="137"/>
+      <c r="K337" s="137"/>
+      <c r="L337" s="138"/>
       <c r="M337" s="78">
         <f>IF(E346=TRUE,D346,IF(E345=TRUE,D345,IF(E344=TRUE,D344,IF(E347=TRUE,D347,IF(E348=TRUE,D348,A339*100)))))</f>
         <v>110400000</v>
@@ -21124,29 +21128,29 @@
       <c r="AX337" s="81"/>
     </row>
     <row r="338" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="147" t="s">
+      <c r="A338" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B338" s="139"/>
+      <c r="B338" s="138"/>
       <c r="C338" s="82"/>
-      <c r="D338" s="140" t="s">
+      <c r="D338" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E338" s="139"/>
-      <c r="F338" s="141" t="s">
+      <c r="E338" s="138"/>
+      <c r="F338" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G338" s="139"/>
+      <c r="G338" s="138"/>
       <c r="H338" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I338" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J338" s="142" t="s">
+      <c r="J338" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K338" s="139"/>
+      <c r="K338" s="138"/>
       <c r="L338" s="85"/>
       <c r="M338" s="80"/>
       <c r="N338" s="79"/>
@@ -21188,10 +21192,10 @@
       <c r="AX338" s="81"/>
     </row>
     <row r="339" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A339" s="150">
+      <c r="A339" s="149">
         <v>800000</v>
       </c>
-      <c r="B339" s="139"/>
+      <c r="B339" s="138"/>
       <c r="C339" s="86"/>
       <c r="D339" s="86" t="s">
         <v>58</v>
@@ -21258,10 +21262,10 @@
       <c r="AX339" s="81"/>
     </row>
     <row r="340" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A340" s="147" t="s">
+      <c r="A340" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B340" s="139"/>
+      <c r="B340" s="138"/>
       <c r="C340" s="92"/>
       <c r="D340" s="92"/>
       <c r="E340" s="92"/>
@@ -21318,8 +21322,8 @@
       <c r="AX340" s="81"/>
     </row>
     <row r="341" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A341" s="147"/>
-      <c r="B341" s="139"/>
+      <c r="A341" s="146"/>
+      <c r="B341" s="138"/>
       <c r="C341" s="80"/>
       <c r="D341" s="80"/>
       <c r="E341" s="80"/>
@@ -21370,10 +21374,10 @@
       <c r="AX341" s="81"/>
     </row>
     <row r="342" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A342" s="148" t="s">
+      <c r="A342" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B342" s="139"/>
+      <c r="B342" s="138"/>
       <c r="C342" s="97"/>
       <c r="D342" s="97">
         <f>((((D340+E340+G340+H340+I340+K340+L340+F340+J340)*A339)/100)+A339)*100</f>
@@ -21427,10 +21431,10 @@
       <c r="AX342" s="81"/>
     </row>
     <row r="343" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A343" s="147" t="s">
+      <c r="A343" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B343" s="139"/>
+      <c r="B343" s="138"/>
       <c r="C343" s="98"/>
       <c r="D343" s="98"/>
       <c r="E343" s="80"/>
@@ -21776,22 +21780,22 @@
       <c r="AX348" s="81"/>
     </row>
     <row r="349" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="149" t="s">
+      <c r="A349" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="B349" s="139"/>
+      <c r="B349" s="138"/>
       <c r="C349" s="77"/>
-      <c r="D349" s="137" t="s">
+      <c r="D349" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E349" s="138"/>
-      <c r="F349" s="138"/>
-      <c r="G349" s="138"/>
-      <c r="H349" s="138"/>
-      <c r="I349" s="138"/>
-      <c r="J349" s="138"/>
-      <c r="K349" s="138"/>
-      <c r="L349" s="139"/>
+      <c r="E349" s="137"/>
+      <c r="F349" s="137"/>
+      <c r="G349" s="137"/>
+      <c r="H349" s="137"/>
+      <c r="I349" s="137"/>
+      <c r="J349" s="137"/>
+      <c r="K349" s="137"/>
+      <c r="L349" s="138"/>
       <c r="M349" s="78">
         <f>IF(E358=TRUE,D358,IF(E357=TRUE,D357,IF(E356=TRUE,D356,IF(E359=TRUE,D359,IF(E360=TRUE,D360,A351*100)))))</f>
         <v>96600000</v>
@@ -21835,29 +21839,29 @@
       <c r="AX349" s="81"/>
     </row>
     <row r="350" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="147" t="s">
+      <c r="A350" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B350" s="139"/>
+      <c r="B350" s="138"/>
       <c r="C350" s="82"/>
-      <c r="D350" s="140" t="s">
+      <c r="D350" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E350" s="139"/>
-      <c r="F350" s="141" t="s">
+      <c r="E350" s="138"/>
+      <c r="F350" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G350" s="139"/>
+      <c r="G350" s="138"/>
       <c r="H350" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I350" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J350" s="142" t="s">
+      <c r="J350" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K350" s="139"/>
+      <c r="K350" s="138"/>
       <c r="L350" s="85"/>
       <c r="M350" s="80"/>
       <c r="N350" s="79"/>
@@ -21899,10 +21903,10 @@
       <c r="AX350" s="81"/>
     </row>
     <row r="351" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A351" s="150">
+      <c r="A351" s="149">
         <v>800000</v>
       </c>
-      <c r="B351" s="139"/>
+      <c r="B351" s="138"/>
       <c r="C351" s="86"/>
       <c r="D351" s="86" t="s">
         <v>58</v>
@@ -21969,10 +21973,10 @@
       <c r="AX351" s="81"/>
     </row>
     <row r="352" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A352" s="147" t="s">
+      <c r="A352" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B352" s="139"/>
+      <c r="B352" s="138"/>
       <c r="C352" s="92"/>
       <c r="D352" s="92"/>
       <c r="E352" s="92"/>
@@ -22029,8 +22033,8 @@
       <c r="AX352" s="81"/>
     </row>
     <row r="353" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="147"/>
-      <c r="B353" s="139"/>
+      <c r="A353" s="146"/>
+      <c r="B353" s="138"/>
       <c r="C353" s="80"/>
       <c r="D353" s="80"/>
       <c r="E353" s="80"/>
@@ -22081,10 +22085,10 @@
       <c r="AX353" s="81"/>
     </row>
     <row r="354" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="148" t="s">
+      <c r="A354" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B354" s="139"/>
+      <c r="B354" s="138"/>
       <c r="C354" s="97"/>
       <c r="D354" s="97">
         <f>((((D352+E352+G352+H352+I352+K352+L352+F352+J352)*A351)/100)+A351)*100</f>
@@ -22138,10 +22142,10 @@
       <c r="AX354" s="81"/>
     </row>
     <row r="355" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A355" s="147" t="s">
+      <c r="A355" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B355" s="139"/>
+      <c r="B355" s="138"/>
       <c r="C355" s="98"/>
       <c r="D355" s="98"/>
       <c r="E355" s="80"/>
@@ -22487,22 +22491,22 @@
       <c r="AX360" s="81"/>
     </row>
     <row r="361" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A361" s="149" t="s">
+      <c r="A361" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="B361" s="139"/>
+      <c r="B361" s="138"/>
       <c r="C361" s="77"/>
-      <c r="D361" s="137" t="s">
+      <c r="D361" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E361" s="138"/>
-      <c r="F361" s="138"/>
-      <c r="G361" s="138"/>
-      <c r="H361" s="138"/>
-      <c r="I361" s="138"/>
-      <c r="J361" s="138"/>
-      <c r="K361" s="138"/>
-      <c r="L361" s="139"/>
+      <c r="E361" s="137"/>
+      <c r="F361" s="137"/>
+      <c r="G361" s="137"/>
+      <c r="H361" s="137"/>
+      <c r="I361" s="137"/>
+      <c r="J361" s="137"/>
+      <c r="K361" s="137"/>
+      <c r="L361" s="138"/>
       <c r="M361" s="78">
         <f>IF(E370=TRUE,D370,IF(E369=TRUE,D369,IF(E368=TRUE,D368,IF(E371=TRUE,D371,IF(E372=TRUE,D372,A363*100)))))</f>
         <v>78200000</v>
@@ -22546,29 +22550,29 @@
       <c r="AX361" s="81"/>
     </row>
     <row r="362" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A362" s="147" t="s">
+      <c r="A362" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B362" s="139"/>
+      <c r="B362" s="138"/>
       <c r="C362" s="82"/>
-      <c r="D362" s="140" t="s">
+      <c r="D362" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E362" s="139"/>
-      <c r="F362" s="141" t="s">
+      <c r="E362" s="138"/>
+      <c r="F362" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G362" s="139"/>
+      <c r="G362" s="138"/>
       <c r="H362" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I362" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J362" s="142" t="s">
+      <c r="J362" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K362" s="139"/>
+      <c r="K362" s="138"/>
       <c r="L362" s="85"/>
       <c r="M362" s="80"/>
       <c r="N362" s="79"/>
@@ -22610,10 +22614,10 @@
       <c r="AX362" s="81"/>
     </row>
     <row r="363" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A363" s="150">
+      <c r="A363" s="149">
         <v>800000</v>
       </c>
-      <c r="B363" s="139"/>
+      <c r="B363" s="138"/>
       <c r="C363" s="86"/>
       <c r="D363" s="86" t="s">
         <v>58</v>
@@ -22680,10 +22684,10 @@
       <c r="AX363" s="81"/>
     </row>
     <row r="364" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A364" s="147" t="s">
+      <c r="A364" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B364" s="139"/>
+      <c r="B364" s="138"/>
       <c r="C364" s="92"/>
       <c r="D364" s="92"/>
       <c r="E364" s="92"/>
@@ -22740,8 +22744,8 @@
       <c r="AX364" s="81"/>
     </row>
     <row r="365" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A365" s="147"/>
-      <c r="B365" s="139"/>
+      <c r="A365" s="146"/>
+      <c r="B365" s="138"/>
       <c r="C365" s="80"/>
       <c r="D365" s="80"/>
       <c r="E365" s="80"/>
@@ -22792,10 +22796,10 @@
       <c r="AX365" s="81"/>
     </row>
     <row r="366" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A366" s="148" t="s">
+      <c r="A366" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B366" s="139"/>
+      <c r="B366" s="138"/>
       <c r="C366" s="97"/>
       <c r="D366" s="97">
         <f>((((D364+E364+G364+H364+I364+K364+L364+F364+J364)*A363)/100)+A363)*100</f>
@@ -22849,10 +22853,10 @@
       <c r="AX366" s="81"/>
     </row>
     <row r="367" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A367" s="147" t="s">
+      <c r="A367" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B367" s="139"/>
+      <c r="B367" s="138"/>
       <c r="C367" s="98"/>
       <c r="D367" s="98"/>
       <c r="E367" s="80"/>
@@ -23198,22 +23202,22 @@
       <c r="AX372" s="81"/>
     </row>
     <row r="373" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A373" s="149" t="s">
+      <c r="A373" s="148" t="s">
         <v>93</v>
       </c>
-      <c r="B373" s="139"/>
+      <c r="B373" s="138"/>
       <c r="C373" s="77"/>
-      <c r="D373" s="137" t="s">
+      <c r="D373" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E373" s="138"/>
-      <c r="F373" s="138"/>
-      <c r="G373" s="138"/>
-      <c r="H373" s="138"/>
-      <c r="I373" s="138"/>
-      <c r="J373" s="138"/>
-      <c r="K373" s="138"/>
-      <c r="L373" s="139"/>
+      <c r="E373" s="137"/>
+      <c r="F373" s="137"/>
+      <c r="G373" s="137"/>
+      <c r="H373" s="137"/>
+      <c r="I373" s="137"/>
+      <c r="J373" s="137"/>
+      <c r="K373" s="137"/>
+      <c r="L373" s="138"/>
       <c r="M373" s="78">
         <f>IF(E382=TRUE,D382,IF(E381=TRUE,D381,IF(E380=TRUE,D380,IF(E383=TRUE,D383,IF(E384=TRUE,D384,A375*100)))))</f>
         <v>64400000</v>
@@ -23257,29 +23261,29 @@
       <c r="AX373" s="81"/>
     </row>
     <row r="374" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A374" s="147" t="s">
+      <c r="A374" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B374" s="139"/>
+      <c r="B374" s="138"/>
       <c r="C374" s="82"/>
-      <c r="D374" s="140" t="s">
+      <c r="D374" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E374" s="139"/>
-      <c r="F374" s="141" t="s">
+      <c r="E374" s="138"/>
+      <c r="F374" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G374" s="139"/>
+      <c r="G374" s="138"/>
       <c r="H374" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I374" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J374" s="142" t="s">
+      <c r="J374" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K374" s="139"/>
+      <c r="K374" s="138"/>
       <c r="L374" s="85"/>
       <c r="M374" s="80"/>
       <c r="N374" s="79"/>
@@ -23321,10 +23325,10 @@
       <c r="AX374" s="81"/>
     </row>
     <row r="375" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A375" s="150">
+      <c r="A375" s="149">
         <v>800000</v>
       </c>
-      <c r="B375" s="139"/>
+      <c r="B375" s="138"/>
       <c r="C375" s="86"/>
       <c r="D375" s="86" t="s">
         <v>58</v>
@@ -23391,10 +23395,10 @@
       <c r="AX375" s="81"/>
     </row>
     <row r="376" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A376" s="147" t="s">
+      <c r="A376" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B376" s="139"/>
+      <c r="B376" s="138"/>
       <c r="C376" s="92"/>
       <c r="D376" s="92"/>
       <c r="E376" s="92"/>
@@ -23451,8 +23455,8 @@
       <c r="AX376" s="81"/>
     </row>
     <row r="377" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A377" s="147"/>
-      <c r="B377" s="139"/>
+      <c r="A377" s="146"/>
+      <c r="B377" s="138"/>
       <c r="C377" s="80"/>
       <c r="D377" s="80"/>
       <c r="E377" s="80"/>
@@ -23503,10 +23507,10 @@
       <c r="AX377" s="81"/>
     </row>
     <row r="378" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A378" s="148" t="s">
+      <c r="A378" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B378" s="139"/>
+      <c r="B378" s="138"/>
       <c r="C378" s="97"/>
       <c r="D378" s="97">
         <f>((((D376+E376+G376+H376+I376+K376+L376+F376+J376)*A375)/100)+A375)*100</f>
@@ -23560,10 +23564,10 @@
       <c r="AX378" s="81"/>
     </row>
     <row r="379" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A379" s="147" t="s">
+      <c r="A379" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B379" s="139"/>
+      <c r="B379" s="138"/>
       <c r="C379" s="98"/>
       <c r="D379" s="98"/>
       <c r="E379" s="80"/>
@@ -23909,22 +23913,22 @@
       <c r="AX384" s="81"/>
     </row>
     <row r="385" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A385" s="149" t="s">
+      <c r="A385" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="B385" s="139"/>
+      <c r="B385" s="138"/>
       <c r="C385" s="77"/>
-      <c r="D385" s="137" t="s">
+      <c r="D385" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E385" s="138"/>
-      <c r="F385" s="138"/>
-      <c r="G385" s="138"/>
-      <c r="H385" s="138"/>
-      <c r="I385" s="138"/>
-      <c r="J385" s="138"/>
-      <c r="K385" s="138"/>
-      <c r="L385" s="139"/>
+      <c r="E385" s="137"/>
+      <c r="F385" s="137"/>
+      <c r="G385" s="137"/>
+      <c r="H385" s="137"/>
+      <c r="I385" s="137"/>
+      <c r="J385" s="137"/>
+      <c r="K385" s="137"/>
+      <c r="L385" s="138"/>
       <c r="M385" s="78">
         <f>IF(E394=TRUE,D394,IF(E393=TRUE,D393,IF(E392=TRUE,D392,IF(E395=TRUE,D395,IF(E396=TRUE,D396,A387*100)))))</f>
         <v>544019</v>
@@ -23968,29 +23972,29 @@
       <c r="AX385" s="81"/>
     </row>
     <row r="386" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A386" s="147" t="s">
+      <c r="A386" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B386" s="139"/>
+      <c r="B386" s="138"/>
       <c r="C386" s="82"/>
-      <c r="D386" s="140" t="s">
+      <c r="D386" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E386" s="139"/>
-      <c r="F386" s="141" t="s">
+      <c r="E386" s="138"/>
+      <c r="F386" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G386" s="139"/>
+      <c r="G386" s="138"/>
       <c r="H386" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I386" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J386" s="142" t="s">
+      <c r="J386" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K386" s="139"/>
+      <c r="K386" s="138"/>
       <c r="L386" s="85"/>
       <c r="M386" s="80"/>
       <c r="N386" s="79"/>
@@ -24032,10 +24036,10 @@
       <c r="AX386" s="81"/>
     </row>
     <row r="387" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A387" s="150">
+      <c r="A387" s="149">
         <v>6758</v>
       </c>
-      <c r="B387" s="139"/>
+      <c r="B387" s="138"/>
       <c r="C387" s="86"/>
       <c r="D387" s="86" t="s">
         <v>58</v>
@@ -24102,10 +24106,10 @@
       <c r="AX387" s="81"/>
     </row>
     <row r="388" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A388" s="147" t="s">
+      <c r="A388" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B388" s="139"/>
+      <c r="B388" s="138"/>
       <c r="C388" s="92"/>
       <c r="D388" s="92"/>
       <c r="E388" s="92"/>
@@ -24162,8 +24166,8 @@
       <c r="AX388" s="81"/>
     </row>
     <row r="389" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A389" s="147"/>
-      <c r="B389" s="139"/>
+      <c r="A389" s="146"/>
+      <c r="B389" s="138"/>
       <c r="C389" s="80"/>
       <c r="D389" s="80"/>
       <c r="E389" s="80"/>
@@ -24214,10 +24218,10 @@
       <c r="AX389" s="81"/>
     </row>
     <row r="390" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A390" s="148" t="s">
+      <c r="A390" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B390" s="139"/>
+      <c r="B390" s="138"/>
       <c r="C390" s="97"/>
       <c r="D390" s="97">
         <f>((((D388+E388+G388+H388+I388+K388+L388+F388+J388)*A387)/100)+A387)*100</f>
@@ -24271,10 +24275,10 @@
       <c r="AX390" s="81"/>
     </row>
     <row r="391" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A391" s="147" t="s">
+      <c r="A391" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B391" s="139"/>
+      <c r="B391" s="138"/>
       <c r="C391" s="98"/>
       <c r="D391" s="98"/>
       <c r="E391" s="80"/>
@@ -24620,22 +24624,22 @@
       <c r="AX396" s="81"/>
     </row>
     <row r="397" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A397" s="149" t="s">
+      <c r="A397" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="B397" s="139"/>
+      <c r="B397" s="138"/>
       <c r="C397" s="77"/>
-      <c r="D397" s="137" t="s">
+      <c r="D397" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E397" s="138"/>
-      <c r="F397" s="138"/>
-      <c r="G397" s="138"/>
-      <c r="H397" s="138"/>
-      <c r="I397" s="138"/>
-      <c r="J397" s="138"/>
-      <c r="K397" s="138"/>
-      <c r="L397" s="139"/>
+      <c r="E397" s="137"/>
+      <c r="F397" s="137"/>
+      <c r="G397" s="137"/>
+      <c r="H397" s="137"/>
+      <c r="I397" s="137"/>
+      <c r="J397" s="137"/>
+      <c r="K397" s="137"/>
+      <c r="L397" s="138"/>
       <c r="M397" s="78">
         <f>IF(E406=TRUE,D406,IF(E405=TRUE,D405,IF(E404=TRUE,D404,IF(E407=TRUE,D407,IF(E408=TRUE,D408,A399*100)))))</f>
         <v>78200000</v>
@@ -24679,29 +24683,29 @@
       <c r="AX397" s="81"/>
     </row>
     <row r="398" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A398" s="147" t="s">
+      <c r="A398" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B398" s="139"/>
+      <c r="B398" s="138"/>
       <c r="C398" s="82"/>
-      <c r="D398" s="140" t="s">
+      <c r="D398" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E398" s="139"/>
-      <c r="F398" s="141" t="s">
+      <c r="E398" s="138"/>
+      <c r="F398" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G398" s="139"/>
+      <c r="G398" s="138"/>
       <c r="H398" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I398" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J398" s="142" t="s">
+      <c r="J398" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K398" s="139"/>
+      <c r="K398" s="138"/>
       <c r="L398" s="85"/>
       <c r="M398" s="80"/>
       <c r="N398" s="79"/>
@@ -24743,10 +24747,10 @@
       <c r="AX398" s="81"/>
     </row>
     <row r="399" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A399" s="150">
+      <c r="A399" s="149">
         <v>800000</v>
       </c>
-      <c r="B399" s="139"/>
+      <c r="B399" s="138"/>
       <c r="C399" s="86"/>
       <c r="D399" s="86" t="s">
         <v>58</v>
@@ -24813,10 +24817,10 @@
       <c r="AX399" s="81"/>
     </row>
     <row r="400" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A400" s="147" t="s">
+      <c r="A400" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B400" s="139"/>
+      <c r="B400" s="138"/>
       <c r="C400" s="92"/>
       <c r="D400" s="92"/>
       <c r="E400" s="92"/>
@@ -24873,8 +24877,8 @@
       <c r="AX400" s="81"/>
     </row>
     <row r="401" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A401" s="147"/>
-      <c r="B401" s="139"/>
+      <c r="A401" s="146"/>
+      <c r="B401" s="138"/>
       <c r="C401" s="80"/>
       <c r="D401" s="80"/>
       <c r="E401" s="80"/>
@@ -24925,10 +24929,10 @@
       <c r="AX401" s="81"/>
     </row>
     <row r="402" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A402" s="148" t="s">
+      <c r="A402" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B402" s="139"/>
+      <c r="B402" s="138"/>
       <c r="C402" s="97"/>
       <c r="D402" s="97">
         <f>((((D400+E400+G400+H400+I400+K400+L400+F400+J400)*A399)/100)+A399)*100</f>
@@ -24982,10 +24986,10 @@
       <c r="AX402" s="81"/>
     </row>
     <row r="403" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A403" s="147" t="s">
+      <c r="A403" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B403" s="139"/>
+      <c r="B403" s="138"/>
       <c r="C403" s="98"/>
       <c r="D403" s="98"/>
       <c r="E403" s="80"/>
@@ -25331,22 +25335,22 @@
       <c r="AX408" s="81"/>
     </row>
     <row r="409" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A409" s="149" t="s">
+      <c r="A409" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="B409" s="139"/>
+      <c r="B409" s="138"/>
       <c r="C409" s="77"/>
-      <c r="D409" s="137" t="s">
+      <c r="D409" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E409" s="138"/>
-      <c r="F409" s="138"/>
-      <c r="G409" s="138"/>
-      <c r="H409" s="138"/>
-      <c r="I409" s="138"/>
-      <c r="J409" s="138"/>
-      <c r="K409" s="138"/>
-      <c r="L409" s="139"/>
+      <c r="E409" s="137"/>
+      <c r="F409" s="137"/>
+      <c r="G409" s="137"/>
+      <c r="H409" s="137"/>
+      <c r="I409" s="137"/>
+      <c r="J409" s="137"/>
+      <c r="K409" s="137"/>
+      <c r="L409" s="138"/>
       <c r="M409" s="78">
         <f>IF(E418=TRUE,D418,IF(E417=TRUE,D417,IF(E416=TRUE,D416,IF(E419=TRUE,D419,IF(E420=TRUE,D420,A411*100)))))</f>
         <v>110400000</v>
@@ -25390,29 +25394,29 @@
       <c r="AX409" s="81"/>
     </row>
     <row r="410" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A410" s="147" t="s">
+      <c r="A410" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B410" s="139"/>
+      <c r="B410" s="138"/>
       <c r="C410" s="82"/>
-      <c r="D410" s="140" t="s">
+      <c r="D410" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E410" s="139"/>
-      <c r="F410" s="141" t="s">
+      <c r="E410" s="138"/>
+      <c r="F410" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G410" s="139"/>
+      <c r="G410" s="138"/>
       <c r="H410" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I410" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J410" s="142" t="s">
+      <c r="J410" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K410" s="139"/>
+      <c r="K410" s="138"/>
       <c r="L410" s="85"/>
       <c r="M410" s="80"/>
       <c r="N410" s="79"/>
@@ -25454,10 +25458,10 @@
       <c r="AX410" s="81"/>
     </row>
     <row r="411" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A411" s="150">
+      <c r="A411" s="149">
         <v>800000</v>
       </c>
-      <c r="B411" s="139"/>
+      <c r="B411" s="138"/>
       <c r="C411" s="86"/>
       <c r="D411" s="86" t="s">
         <v>58</v>
@@ -25524,10 +25528,10 @@
       <c r="AX411" s="81"/>
     </row>
     <row r="412" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A412" s="147" t="s">
+      <c r="A412" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B412" s="139"/>
+      <c r="B412" s="138"/>
       <c r="C412" s="92"/>
       <c r="D412" s="92"/>
       <c r="E412" s="92"/>
@@ -25584,8 +25588,8 @@
       <c r="AX412" s="81"/>
     </row>
     <row r="413" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A413" s="147"/>
-      <c r="B413" s="139"/>
+      <c r="A413" s="146"/>
+      <c r="B413" s="138"/>
       <c r="C413" s="80"/>
       <c r="D413" s="80"/>
       <c r="E413" s="80"/>
@@ -25636,10 +25640,10 @@
       <c r="AX413" s="81"/>
     </row>
     <row r="414" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A414" s="148" t="s">
+      <c r="A414" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B414" s="139"/>
+      <c r="B414" s="138"/>
       <c r="C414" s="97"/>
       <c r="D414" s="97">
         <f>((((D412+E412+G412+H412+I412+K412+L412+F412+J412)*A411)/100)+A411)*100</f>
@@ -25693,10 +25697,10 @@
       <c r="AX414" s="81"/>
     </row>
     <row r="415" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A415" s="147" t="s">
+      <c r="A415" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B415" s="139"/>
+      <c r="B415" s="138"/>
       <c r="C415" s="98"/>
       <c r="D415" s="98"/>
       <c r="E415" s="80"/>
@@ -26042,22 +26046,22 @@
       <c r="AX420" s="81"/>
     </row>
     <row r="421" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A421" s="149" t="s">
+      <c r="A421" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="B421" s="139"/>
+      <c r="B421" s="138"/>
       <c r="C421" s="77"/>
-      <c r="D421" s="137" t="s">
+      <c r="D421" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E421" s="138"/>
-      <c r="F421" s="138"/>
-      <c r="G421" s="138"/>
-      <c r="H421" s="138"/>
-      <c r="I421" s="138"/>
-      <c r="J421" s="138"/>
-      <c r="K421" s="138"/>
-      <c r="L421" s="139"/>
+      <c r="E421" s="137"/>
+      <c r="F421" s="137"/>
+      <c r="G421" s="137"/>
+      <c r="H421" s="137"/>
+      <c r="I421" s="137"/>
+      <c r="J421" s="137"/>
+      <c r="K421" s="137"/>
+      <c r="L421" s="138"/>
       <c r="M421" s="78">
         <f>IF(E430=TRUE,D430,IF(E429=TRUE,D429,IF(E428=TRUE,D428,IF(E431=TRUE,D431,IF(E432=TRUE,D432,A423*100)))))</f>
         <v>110400000</v>
@@ -26101,29 +26105,29 @@
       <c r="AX421" s="81"/>
     </row>
     <row r="422" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A422" s="147" t="s">
+      <c r="A422" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B422" s="139"/>
+      <c r="B422" s="138"/>
       <c r="C422" s="82"/>
-      <c r="D422" s="140" t="s">
+      <c r="D422" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E422" s="139"/>
-      <c r="F422" s="141" t="s">
+      <c r="E422" s="138"/>
+      <c r="F422" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G422" s="139"/>
+      <c r="G422" s="138"/>
       <c r="H422" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I422" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J422" s="142" t="s">
+      <c r="J422" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K422" s="139"/>
+      <c r="K422" s="138"/>
       <c r="L422" s="85"/>
       <c r="M422" s="80"/>
       <c r="N422" s="79"/>
@@ -26165,10 +26169,10 @@
       <c r="AX422" s="81"/>
     </row>
     <row r="423" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A423" s="150">
+      <c r="A423" s="149">
         <v>800000</v>
       </c>
-      <c r="B423" s="139"/>
+      <c r="B423" s="138"/>
       <c r="C423" s="86"/>
       <c r="D423" s="86" t="s">
         <v>58</v>
@@ -26235,10 +26239,10 @@
       <c r="AX423" s="81"/>
     </row>
     <row r="424" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A424" s="147" t="s">
+      <c r="A424" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B424" s="139"/>
+      <c r="B424" s="138"/>
       <c r="C424" s="92"/>
       <c r="D424" s="92"/>
       <c r="E424" s="92"/>
@@ -26295,8 +26299,8 @@
       <c r="AX424" s="81"/>
     </row>
     <row r="425" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A425" s="147"/>
-      <c r="B425" s="139"/>
+      <c r="A425" s="146"/>
+      <c r="B425" s="138"/>
       <c r="C425" s="80"/>
       <c r="D425" s="80"/>
       <c r="E425" s="80"/>
@@ -26347,10 +26351,10 @@
       <c r="AX425" s="81"/>
     </row>
     <row r="426" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A426" s="148" t="s">
+      <c r="A426" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B426" s="139"/>
+      <c r="B426" s="138"/>
       <c r="C426" s="97"/>
       <c r="D426" s="97">
         <f>((((D424+E424+G424+H424+I424+K424+L424+F424+J424)*A423)/100)+A423)*100</f>
@@ -26404,10 +26408,10 @@
       <c r="AX426" s="81"/>
     </row>
     <row r="427" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A427" s="147" t="s">
+      <c r="A427" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B427" s="139"/>
+      <c r="B427" s="138"/>
       <c r="C427" s="98"/>
       <c r="D427" s="98"/>
       <c r="E427" s="80"/>
@@ -26753,22 +26757,22 @@
       <c r="AX432" s="81"/>
     </row>
     <row r="433" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A433" s="149" t="s">
+      <c r="A433" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="B433" s="139"/>
+      <c r="B433" s="138"/>
       <c r="C433" s="77"/>
-      <c r="D433" s="137" t="s">
+      <c r="D433" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E433" s="138"/>
-      <c r="F433" s="138"/>
-      <c r="G433" s="138"/>
-      <c r="H433" s="138"/>
-      <c r="I433" s="138"/>
-      <c r="J433" s="138"/>
-      <c r="K433" s="138"/>
-      <c r="L433" s="139"/>
+      <c r="E433" s="137"/>
+      <c r="F433" s="137"/>
+      <c r="G433" s="137"/>
+      <c r="H433" s="137"/>
+      <c r="I433" s="137"/>
+      <c r="J433" s="137"/>
+      <c r="K433" s="137"/>
+      <c r="L433" s="138"/>
       <c r="M433" s="78">
         <f>IF(E442=TRUE,D442,IF(E441=TRUE,D441,IF(E440=TRUE,D440,IF(E443=TRUE,D443,IF(E444=TRUE,D444,A435*100)))))</f>
         <v>64400000</v>
@@ -26812,29 +26816,29 @@
       <c r="AX433" s="81"/>
     </row>
     <row r="434" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A434" s="147" t="s">
+      <c r="A434" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B434" s="139"/>
+      <c r="B434" s="138"/>
       <c r="C434" s="82"/>
-      <c r="D434" s="140" t="s">
+      <c r="D434" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E434" s="139"/>
-      <c r="F434" s="141" t="s">
+      <c r="E434" s="138"/>
+      <c r="F434" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G434" s="139"/>
+      <c r="G434" s="138"/>
       <c r="H434" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I434" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J434" s="142" t="s">
+      <c r="J434" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K434" s="139"/>
+      <c r="K434" s="138"/>
       <c r="L434" s="85"/>
       <c r="M434" s="80"/>
       <c r="N434" s="79"/>
@@ -26876,10 +26880,10 @@
       <c r="AX434" s="81"/>
     </row>
     <row r="435" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A435" s="150">
+      <c r="A435" s="149">
         <v>800000</v>
       </c>
-      <c r="B435" s="139"/>
+      <c r="B435" s="138"/>
       <c r="C435" s="86"/>
       <c r="D435" s="86" t="s">
         <v>58</v>
@@ -26946,10 +26950,10 @@
       <c r="AX435" s="81"/>
     </row>
     <row r="436" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A436" s="147" t="s">
+      <c r="A436" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B436" s="139"/>
+      <c r="B436" s="138"/>
       <c r="C436" s="92"/>
       <c r="D436" s="92"/>
       <c r="E436" s="92"/>
@@ -27006,8 +27010,8 @@
       <c r="AX436" s="81"/>
     </row>
     <row r="437" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A437" s="147"/>
-      <c r="B437" s="139"/>
+      <c r="A437" s="146"/>
+      <c r="B437" s="138"/>
       <c r="C437" s="80"/>
       <c r="D437" s="80"/>
       <c r="E437" s="80"/>
@@ -27058,10 +27062,10 @@
       <c r="AX437" s="81"/>
     </row>
     <row r="438" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A438" s="148" t="s">
+      <c r="A438" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B438" s="139"/>
+      <c r="B438" s="138"/>
       <c r="C438" s="97"/>
       <c r="D438" s="97">
         <f>((((D436+E436+G436+H436+I436+K436+L436+F436+J436)*A435)/100)+A435)*100</f>
@@ -27115,10 +27119,10 @@
       <c r="AX438" s="81"/>
     </row>
     <row r="439" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A439" s="147" t="s">
+      <c r="A439" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B439" s="139"/>
+      <c r="B439" s="138"/>
       <c r="C439" s="98"/>
       <c r="D439" s="98"/>
       <c r="E439" s="80"/>
@@ -27464,22 +27468,22 @@
       <c r="AX444" s="81"/>
     </row>
     <row r="445" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A445" s="149" t="s">
+      <c r="A445" s="148" t="s">
         <v>99</v>
       </c>
-      <c r="B445" s="139"/>
+      <c r="B445" s="138"/>
       <c r="C445" s="77"/>
-      <c r="D445" s="137" t="s">
+      <c r="D445" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E445" s="138"/>
-      <c r="F445" s="138"/>
-      <c r="G445" s="138"/>
-      <c r="H445" s="138"/>
-      <c r="I445" s="138"/>
-      <c r="J445" s="138"/>
-      <c r="K445" s="138"/>
-      <c r="L445" s="139"/>
+      <c r="E445" s="137"/>
+      <c r="F445" s="137"/>
+      <c r="G445" s="137"/>
+      <c r="H445" s="137"/>
+      <c r="I445" s="137"/>
+      <c r="J445" s="137"/>
+      <c r="K445" s="137"/>
+      <c r="L445" s="138"/>
       <c r="M445" s="78">
         <f>IF(E454=TRUE,D454,IF(E453=TRUE,D453,IF(E452=TRUE,D452,IF(E455=TRUE,D455,IF(E456=TRUE,D456,A447*100)))))</f>
         <v>64400000</v>
@@ -27523,29 +27527,29 @@
       <c r="AX445" s="81"/>
     </row>
     <row r="446" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A446" s="147" t="s">
+      <c r="A446" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B446" s="139"/>
+      <c r="B446" s="138"/>
       <c r="C446" s="82"/>
-      <c r="D446" s="140" t="s">
+      <c r="D446" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E446" s="139"/>
-      <c r="F446" s="141" t="s">
+      <c r="E446" s="138"/>
+      <c r="F446" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G446" s="139"/>
+      <c r="G446" s="138"/>
       <c r="H446" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I446" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J446" s="142" t="s">
+      <c r="J446" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K446" s="139"/>
+      <c r="K446" s="138"/>
       <c r="L446" s="85"/>
       <c r="M446" s="80"/>
       <c r="N446" s="79"/>
@@ -27587,10 +27591,10 @@
       <c r="AX446" s="81"/>
     </row>
     <row r="447" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A447" s="150">
+      <c r="A447" s="149">
         <v>800000</v>
       </c>
-      <c r="B447" s="139"/>
+      <c r="B447" s="138"/>
       <c r="C447" s="86"/>
       <c r="D447" s="86" t="s">
         <v>58</v>
@@ -27657,10 +27661,10 @@
       <c r="AX447" s="81"/>
     </row>
     <row r="448" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A448" s="147" t="s">
+      <c r="A448" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B448" s="139"/>
+      <c r="B448" s="138"/>
       <c r="C448" s="92"/>
       <c r="D448" s="92"/>
       <c r="E448" s="92"/>
@@ -27717,8 +27721,8 @@
       <c r="AX448" s="81"/>
     </row>
     <row r="449" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A449" s="147"/>
-      <c r="B449" s="139"/>
+      <c r="A449" s="146"/>
+      <c r="B449" s="138"/>
       <c r="C449" s="80"/>
       <c r="D449" s="80"/>
       <c r="E449" s="80"/>
@@ -27769,10 +27773,10 @@
       <c r="AX449" s="81"/>
     </row>
     <row r="450" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A450" s="148" t="s">
+      <c r="A450" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B450" s="139"/>
+      <c r="B450" s="138"/>
       <c r="C450" s="97"/>
       <c r="D450" s="97">
         <f>((((D448+E448+G448+H448+I448+K448+L448+F448+J448)*A447)/100)+A447)*100</f>
@@ -27826,10 +27830,10 @@
       <c r="AX450" s="81"/>
     </row>
     <row r="451" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A451" s="147" t="s">
+      <c r="A451" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B451" s="139"/>
+      <c r="B451" s="138"/>
       <c r="C451" s="98"/>
       <c r="D451" s="98"/>
       <c r="E451" s="80"/>
@@ -28175,22 +28179,22 @@
       <c r="AX456" s="81"/>
     </row>
     <row r="457" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A457" s="149" t="s">
+      <c r="A457" s="148" t="s">
         <v>100</v>
       </c>
-      <c r="B457" s="139"/>
+      <c r="B457" s="138"/>
       <c r="C457" s="77"/>
-      <c r="D457" s="137" t="s">
+      <c r="D457" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E457" s="138"/>
-      <c r="F457" s="138"/>
-      <c r="G457" s="138"/>
-      <c r="H457" s="138"/>
-      <c r="I457" s="138"/>
-      <c r="J457" s="138"/>
-      <c r="K457" s="138"/>
-      <c r="L457" s="139"/>
+      <c r="E457" s="137"/>
+      <c r="F457" s="137"/>
+      <c r="G457" s="137"/>
+      <c r="H457" s="137"/>
+      <c r="I457" s="137"/>
+      <c r="J457" s="137"/>
+      <c r="K457" s="137"/>
+      <c r="L457" s="138"/>
       <c r="M457" s="78">
         <f>IF(E466=TRUE,D466,IF(E465=TRUE,D465,IF(E464=TRUE,D464,IF(E467=TRUE,D467,IF(E468=TRUE,D468,A459*100)))))</f>
         <v>96600000</v>
@@ -28234,29 +28238,29 @@
       <c r="AX457" s="81"/>
     </row>
     <row r="458" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A458" s="147" t="s">
+      <c r="A458" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B458" s="139"/>
+      <c r="B458" s="138"/>
       <c r="C458" s="82"/>
-      <c r="D458" s="140" t="s">
+      <c r="D458" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E458" s="139"/>
-      <c r="F458" s="141" t="s">
+      <c r="E458" s="138"/>
+      <c r="F458" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G458" s="139"/>
+      <c r="G458" s="138"/>
       <c r="H458" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I458" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J458" s="142" t="s">
+      <c r="J458" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K458" s="139"/>
+      <c r="K458" s="138"/>
       <c r="L458" s="85"/>
       <c r="M458" s="80"/>
       <c r="N458" s="79"/>
@@ -28298,10 +28302,10 @@
       <c r="AX458" s="81"/>
     </row>
     <row r="459" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A459" s="150">
+      <c r="A459" s="149">
         <v>800000</v>
       </c>
-      <c r="B459" s="139"/>
+      <c r="B459" s="138"/>
       <c r="C459" s="86"/>
       <c r="D459" s="86" t="s">
         <v>58</v>
@@ -28368,10 +28372,10 @@
       <c r="AX459" s="81"/>
     </row>
     <row r="460" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A460" s="147" t="s">
+      <c r="A460" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B460" s="139"/>
+      <c r="B460" s="138"/>
       <c r="C460" s="92"/>
       <c r="D460" s="92"/>
       <c r="E460" s="92"/>
@@ -28428,8 +28432,8 @@
       <c r="AX460" s="81"/>
     </row>
     <row r="461" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A461" s="147"/>
-      <c r="B461" s="139"/>
+      <c r="A461" s="146"/>
+      <c r="B461" s="138"/>
       <c r="C461" s="80"/>
       <c r="D461" s="80"/>
       <c r="E461" s="80"/>
@@ -28480,10 +28484,10 @@
       <c r="AX461" s="81"/>
     </row>
     <row r="462" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A462" s="148" t="s">
+      <c r="A462" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B462" s="139"/>
+      <c r="B462" s="138"/>
       <c r="C462" s="97"/>
       <c r="D462" s="97">
         <f>((((D460+E460+G460+H460+I460+K460+L460+F460+J460)*A459)/100)+A459)*100</f>
@@ -28537,10 +28541,10 @@
       <c r="AX462" s="81"/>
     </row>
     <row r="463" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A463" s="147" t="s">
+      <c r="A463" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B463" s="139"/>
+      <c r="B463" s="138"/>
       <c r="C463" s="98"/>
       <c r="D463" s="98"/>
       <c r="E463" s="80"/>
@@ -28886,22 +28890,22 @@
       <c r="AX468" s="81"/>
     </row>
     <row r="469" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A469" s="149" t="s">
+      <c r="A469" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="B469" s="139"/>
+      <c r="B469" s="138"/>
       <c r="C469" s="77"/>
-      <c r="D469" s="137" t="s">
+      <c r="D469" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E469" s="138"/>
-      <c r="F469" s="138"/>
-      <c r="G469" s="138"/>
-      <c r="H469" s="138"/>
-      <c r="I469" s="138"/>
-      <c r="J469" s="138"/>
-      <c r="K469" s="138"/>
-      <c r="L469" s="139"/>
+      <c r="E469" s="137"/>
+      <c r="F469" s="137"/>
+      <c r="G469" s="137"/>
+      <c r="H469" s="137"/>
+      <c r="I469" s="137"/>
+      <c r="J469" s="137"/>
+      <c r="K469" s="137"/>
+      <c r="L469" s="138"/>
       <c r="M469" s="78">
         <f>IF(E478=TRUE,D478,IF(E477=TRUE,D477,IF(E476=TRUE,D476,IF(E479=TRUE,D479,IF(E480=TRUE,D480,A471*100)))))</f>
         <v>96600000</v>
@@ -28945,29 +28949,29 @@
       <c r="AX469" s="81"/>
     </row>
     <row r="470" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A470" s="147" t="s">
+      <c r="A470" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B470" s="139"/>
+      <c r="B470" s="138"/>
       <c r="C470" s="82"/>
-      <c r="D470" s="140" t="s">
+      <c r="D470" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E470" s="139"/>
-      <c r="F470" s="141" t="s">
+      <c r="E470" s="138"/>
+      <c r="F470" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G470" s="139"/>
+      <c r="G470" s="138"/>
       <c r="H470" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I470" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J470" s="142" t="s">
+      <c r="J470" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K470" s="139"/>
+      <c r="K470" s="138"/>
       <c r="L470" s="85"/>
       <c r="M470" s="80"/>
       <c r="N470" s="79"/>
@@ -29009,10 +29013,10 @@
       <c r="AX470" s="81"/>
     </row>
     <row r="471" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A471" s="150">
+      <c r="A471" s="149">
         <v>800000</v>
       </c>
-      <c r="B471" s="139"/>
+      <c r="B471" s="138"/>
       <c r="C471" s="86"/>
       <c r="D471" s="86" t="s">
         <v>58</v>
@@ -29079,10 +29083,10 @@
       <c r="AX471" s="81"/>
     </row>
     <row r="472" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A472" s="147" t="s">
+      <c r="A472" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B472" s="139"/>
+      <c r="B472" s="138"/>
       <c r="C472" s="92"/>
       <c r="D472" s="92"/>
       <c r="E472" s="92"/>
@@ -29139,8 +29143,8 @@
       <c r="AX472" s="81"/>
     </row>
     <row r="473" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A473" s="147"/>
-      <c r="B473" s="139"/>
+      <c r="A473" s="146"/>
+      <c r="B473" s="138"/>
       <c r="C473" s="80"/>
       <c r="D473" s="80"/>
       <c r="E473" s="80"/>
@@ -29191,10 +29195,10 @@
       <c r="AX473" s="81"/>
     </row>
     <row r="474" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A474" s="148" t="s">
+      <c r="A474" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B474" s="139"/>
+      <c r="B474" s="138"/>
       <c r="C474" s="97"/>
       <c r="D474" s="97">
         <f>((((D472+E472+G472+H472+I472+K472+L472+F472+J472)*A471)/100)+A471)*100</f>
@@ -29248,10 +29252,10 @@
       <c r="AX474" s="81"/>
     </row>
     <row r="475" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A475" s="147" t="s">
+      <c r="A475" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B475" s="139"/>
+      <c r="B475" s="138"/>
       <c r="C475" s="98"/>
       <c r="D475" s="98"/>
       <c r="E475" s="80"/>
@@ -29597,22 +29601,22 @@
       <c r="AX480" s="81"/>
     </row>
     <row r="481" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A481" s="149" t="s">
+      <c r="A481" s="148" t="s">
         <v>102</v>
       </c>
-      <c r="B481" s="139"/>
+      <c r="B481" s="138"/>
       <c r="C481" s="77"/>
-      <c r="D481" s="137" t="s">
+      <c r="D481" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E481" s="138"/>
-      <c r="F481" s="138"/>
-      <c r="G481" s="138"/>
-      <c r="H481" s="138"/>
-      <c r="I481" s="138"/>
-      <c r="J481" s="138"/>
-      <c r="K481" s="138"/>
-      <c r="L481" s="139"/>
+      <c r="E481" s="137"/>
+      <c r="F481" s="137"/>
+      <c r="G481" s="137"/>
+      <c r="H481" s="137"/>
+      <c r="I481" s="137"/>
+      <c r="J481" s="137"/>
+      <c r="K481" s="137"/>
+      <c r="L481" s="138"/>
       <c r="M481" s="78">
         <f>IF(E490=TRUE,D490,IF(E489=TRUE,D489,IF(E488=TRUE,D488,IF(E491=TRUE,D491,IF(E492=TRUE,D492,A483*100)))))</f>
         <v>110400000</v>
@@ -29656,29 +29660,29 @@
       <c r="AX481" s="81"/>
     </row>
     <row r="482" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A482" s="147" t="s">
+      <c r="A482" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B482" s="139"/>
+      <c r="B482" s="138"/>
       <c r="C482" s="82"/>
-      <c r="D482" s="140" t="s">
+      <c r="D482" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E482" s="139"/>
-      <c r="F482" s="141" t="s">
+      <c r="E482" s="138"/>
+      <c r="F482" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G482" s="139"/>
+      <c r="G482" s="138"/>
       <c r="H482" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I482" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J482" s="142" t="s">
+      <c r="J482" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K482" s="139"/>
+      <c r="K482" s="138"/>
       <c r="L482" s="85"/>
       <c r="M482" s="80"/>
       <c r="N482" s="79"/>
@@ -29720,10 +29724,10 @@
       <c r="AX482" s="81"/>
     </row>
     <row r="483" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A483" s="150">
+      <c r="A483" s="149">
         <v>800000</v>
       </c>
-      <c r="B483" s="139"/>
+      <c r="B483" s="138"/>
       <c r="C483" s="86"/>
       <c r="D483" s="86" t="s">
         <v>58</v>
@@ -29790,10 +29794,10 @@
       <c r="AX483" s="81"/>
     </row>
     <row r="484" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A484" s="147" t="s">
+      <c r="A484" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B484" s="139"/>
+      <c r="B484" s="138"/>
       <c r="C484" s="92"/>
       <c r="D484" s="92"/>
       <c r="E484" s="92"/>
@@ -29850,8 +29854,8 @@
       <c r="AX484" s="81"/>
     </row>
     <row r="485" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A485" s="147"/>
-      <c r="B485" s="139"/>
+      <c r="A485" s="146"/>
+      <c r="B485" s="138"/>
       <c r="C485" s="80"/>
       <c r="D485" s="80"/>
       <c r="E485" s="80"/>
@@ -29902,10 +29906,10 @@
       <c r="AX485" s="81"/>
     </row>
     <row r="486" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A486" s="148" t="s">
+      <c r="A486" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B486" s="139"/>
+      <c r="B486" s="138"/>
       <c r="C486" s="97"/>
       <c r="D486" s="97">
         <f>((((D484+E484+G484+H484+I484+K484+L484+F484+J484)*A483)/100)+A483)*100</f>
@@ -29959,10 +29963,10 @@
       <c r="AX486" s="81"/>
     </row>
     <row r="487" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A487" s="147" t="s">
+      <c r="A487" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B487" s="139"/>
+      <c r="B487" s="138"/>
       <c r="C487" s="98"/>
       <c r="D487" s="98"/>
       <c r="E487" s="80"/>
@@ -30308,22 +30312,22 @@
       <c r="AX492" s="81"/>
     </row>
     <row r="493" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A493" s="149" t="s">
+      <c r="A493" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="B493" s="139"/>
+      <c r="B493" s="138"/>
       <c r="C493" s="77"/>
-      <c r="D493" s="137" t="s">
+      <c r="D493" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E493" s="138"/>
-      <c r="F493" s="138"/>
-      <c r="G493" s="138"/>
-      <c r="H493" s="138"/>
-      <c r="I493" s="138"/>
-      <c r="J493" s="138"/>
-      <c r="K493" s="138"/>
-      <c r="L493" s="139"/>
+      <c r="E493" s="137"/>
+      <c r="F493" s="137"/>
+      <c r="G493" s="137"/>
+      <c r="H493" s="137"/>
+      <c r="I493" s="137"/>
+      <c r="J493" s="137"/>
+      <c r="K493" s="137"/>
+      <c r="L493" s="138"/>
       <c r="M493" s="78">
         <f>IF(E502=TRUE,D502,IF(E501=TRUE,D501,IF(E500=TRUE,D500,IF(E503=TRUE,D503,IF(E504=TRUE,D504,A495*100)))))</f>
         <v>78200000</v>
@@ -30367,29 +30371,29 @@
       <c r="AX493" s="81"/>
     </row>
     <row r="494" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A494" s="147" t="s">
+      <c r="A494" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B494" s="139"/>
+      <c r="B494" s="138"/>
       <c r="C494" s="82"/>
-      <c r="D494" s="140" t="s">
+      <c r="D494" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E494" s="139"/>
-      <c r="F494" s="141" t="s">
+      <c r="E494" s="138"/>
+      <c r="F494" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G494" s="139"/>
+      <c r="G494" s="138"/>
       <c r="H494" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I494" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J494" s="142" t="s">
+      <c r="J494" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K494" s="139"/>
+      <c r="K494" s="138"/>
       <c r="L494" s="85"/>
       <c r="M494" s="80"/>
       <c r="N494" s="79"/>
@@ -30431,10 +30435,10 @@
       <c r="AX494" s="81"/>
     </row>
     <row r="495" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A495" s="150">
+      <c r="A495" s="149">
         <v>800000</v>
       </c>
-      <c r="B495" s="139"/>
+      <c r="B495" s="138"/>
       <c r="C495" s="86"/>
       <c r="D495" s="86" t="s">
         <v>58</v>
@@ -30501,10 +30505,10 @@
       <c r="AX495" s="81"/>
     </row>
     <row r="496" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A496" s="147" t="s">
+      <c r="A496" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B496" s="139"/>
+      <c r="B496" s="138"/>
       <c r="C496" s="92"/>
       <c r="D496" s="92"/>
       <c r="E496" s="92"/>
@@ -30561,8 +30565,8 @@
       <c r="AX496" s="81"/>
     </row>
     <row r="497" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A497" s="147"/>
-      <c r="B497" s="139"/>
+      <c r="A497" s="146"/>
+      <c r="B497" s="138"/>
       <c r="C497" s="80"/>
       <c r="D497" s="80"/>
       <c r="E497" s="80"/>
@@ -30613,10 +30617,10 @@
       <c r="AX497" s="81"/>
     </row>
     <row r="498" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A498" s="148" t="s">
+      <c r="A498" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B498" s="139"/>
+      <c r="B498" s="138"/>
       <c r="C498" s="97"/>
       <c r="D498" s="97">
         <f>((((D496+E496+G496+H496+I496+K496+L496+F496+J496)*A495)/100)+A495)*100</f>
@@ -30670,10 +30674,10 @@
       <c r="AX498" s="81"/>
     </row>
     <row r="499" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A499" s="147" t="s">
+      <c r="A499" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B499" s="139"/>
+      <c r="B499" s="138"/>
       <c r="C499" s="98"/>
       <c r="D499" s="98"/>
       <c r="E499" s="80"/>
@@ -31019,22 +31023,22 @@
       <c r="AX504" s="81"/>
     </row>
     <row r="505" spans="1:50" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A505" s="149" t="s">
+      <c r="A505" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="B505" s="139"/>
+      <c r="B505" s="138"/>
       <c r="C505" s="77"/>
-      <c r="D505" s="137" t="s">
+      <c r="D505" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E505" s="138"/>
-      <c r="F505" s="138"/>
-      <c r="G505" s="138"/>
-      <c r="H505" s="138"/>
-      <c r="I505" s="138"/>
-      <c r="J505" s="138"/>
-      <c r="K505" s="138"/>
-      <c r="L505" s="139"/>
+      <c r="E505" s="137"/>
+      <c r="F505" s="137"/>
+      <c r="G505" s="137"/>
+      <c r="H505" s="137"/>
+      <c r="I505" s="137"/>
+      <c r="J505" s="137"/>
+      <c r="K505" s="137"/>
+      <c r="L505" s="138"/>
       <c r="M505" s="78">
         <f>IF(E514=TRUE,D514,IF(E513=TRUE,D513,IF(E512=TRUE,D512,IF(E515=TRUE,D515,IF(E516=TRUE,D516,A507*100)))))</f>
         <v>110400000</v>
@@ -31078,29 +31082,29 @@
       <c r="AX505" s="81"/>
     </row>
     <row r="506" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A506" s="147" t="s">
+      <c r="A506" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B506" s="139"/>
+      <c r="B506" s="138"/>
       <c r="C506" s="82"/>
-      <c r="D506" s="140" t="s">
+      <c r="D506" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E506" s="139"/>
-      <c r="F506" s="141" t="s">
+      <c r="E506" s="138"/>
+      <c r="F506" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G506" s="139"/>
+      <c r="G506" s="138"/>
       <c r="H506" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I506" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J506" s="142" t="s">
+      <c r="J506" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="K506" s="139"/>
+      <c r="K506" s="138"/>
       <c r="L506" s="85"/>
       <c r="M506" s="80"/>
       <c r="N506" s="79"/>
@@ -31142,10 +31146,10 @@
       <c r="AX506" s="81"/>
     </row>
     <row r="507" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A507" s="150">
+      <c r="A507" s="149">
         <v>800000</v>
       </c>
-      <c r="B507" s="139"/>
+      <c r="B507" s="138"/>
       <c r="C507" s="86"/>
       <c r="D507" s="86" t="s">
         <v>58</v>
@@ -31212,10 +31216,10 @@
       <c r="AX507" s="81"/>
     </row>
     <row r="508" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A508" s="147" t="s">
+      <c r="A508" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B508" s="139"/>
+      <c r="B508" s="138"/>
       <c r="C508" s="92"/>
       <c r="D508" s="92"/>
       <c r="E508" s="92"/>
@@ -31272,8 +31276,8 @@
       <c r="AX508" s="81"/>
     </row>
     <row r="509" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A509" s="147"/>
-      <c r="B509" s="139"/>
+      <c r="A509" s="146"/>
+      <c r="B509" s="138"/>
       <c r="C509" s="80"/>
       <c r="D509" s="80"/>
       <c r="E509" s="80"/>
@@ -31324,10 +31328,10 @@
       <c r="AX509" s="81"/>
     </row>
     <row r="510" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A510" s="148" t="s">
+      <c r="A510" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B510" s="139"/>
+      <c r="B510" s="138"/>
       <c r="C510" s="97"/>
       <c r="D510" s="97">
         <f>((((D508+E508+G508+H508+I508+K508+L508+F508+J508)*A507)/100)+A507)*100</f>
@@ -31381,10 +31385,10 @@
       <c r="AX510" s="81"/>
     </row>
     <row r="511" spans="1:50" ht="21" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A511" s="147" t="s">
+      <c r="A511" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B511" s="139"/>
+      <c r="B511" s="138"/>
       <c r="C511" s="98"/>
       <c r="D511" s="98"/>
       <c r="E511" s="80"/>
@@ -31730,22 +31734,22 @@
       <c r="AX516" s="81"/>
     </row>
     <row r="517" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A517" s="149" t="s">
+      <c r="A517" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="B517" s="139"/>
+      <c r="B517" s="138"/>
       <c r="C517" s="77"/>
-      <c r="D517" s="137" t="s">
+      <c r="D517" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E517" s="138"/>
-      <c r="F517" s="138"/>
-      <c r="G517" s="138"/>
-      <c r="H517" s="138"/>
-      <c r="I517" s="138"/>
-      <c r="J517" s="138"/>
-      <c r="K517" s="138"/>
-      <c r="L517" s="139"/>
+      <c r="E517" s="137"/>
+      <c r="F517" s="137"/>
+      <c r="G517" s="137"/>
+      <c r="H517" s="137"/>
+      <c r="I517" s="137"/>
+      <c r="J517" s="137"/>
+      <c r="K517" s="137"/>
+      <c r="L517" s="138"/>
       <c r="M517" s="78">
         <f>IF(E526=TRUE,D526,IF(E525=TRUE,D525,IF(E524=TRUE,D524,IF(E527=TRUE,D527,IF(E528=TRUE,D528,A519*100)))))</f>
         <v>800100</v>
@@ -31789,29 +31793,29 @@
       <c r="AX517" s="81"/>
     </row>
     <row r="518" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A518" s="151" t="s">
+      <c r="A518" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="B518" s="139"/>
+      <c r="B518" s="138"/>
       <c r="C518" s="109"/>
-      <c r="D518" s="143" t="s">
+      <c r="D518" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="E518" s="139"/>
-      <c r="F518" s="144" t="s">
+      <c r="E518" s="138"/>
+      <c r="F518" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="G518" s="139"/>
+      <c r="G518" s="138"/>
       <c r="H518" s="110" t="s">
         <v>55</v>
       </c>
       <c r="I518" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="J518" s="145" t="s">
+      <c r="J518" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="K518" s="139"/>
+      <c r="K518" s="138"/>
       <c r="L518" s="112"/>
       <c r="M518" s="72"/>
       <c r="N518" s="74"/>
@@ -31853,10 +31857,10 @@
       <c r="AX518" s="20"/>
     </row>
     <row r="519" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A519" s="153">
+      <c r="A519" s="152">
         <v>8001</v>
       </c>
-      <c r="B519" s="139"/>
+      <c r="B519" s="138"/>
       <c r="C519" s="113"/>
       <c r="D519" s="113" t="s">
         <v>58</v>
@@ -31923,10 +31927,10 @@
       <c r="AX519" s="20"/>
     </row>
     <row r="520" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A520" s="151" t="s">
+      <c r="A520" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="B520" s="139"/>
+      <c r="B520" s="138"/>
       <c r="C520" s="119"/>
       <c r="D520" s="119">
         <v>4</v>
@@ -31983,8 +31987,8 @@
       <c r="AX520" s="20"/>
     </row>
     <row r="521" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A521" s="151"/>
-      <c r="B521" s="139"/>
+      <c r="A521" s="150"/>
+      <c r="B521" s="138"/>
       <c r="C521" s="72"/>
       <c r="D521" s="72"/>
       <c r="E521" s="72"/>
@@ -32035,10 +32039,10 @@
       <c r="AX521" s="20"/>
     </row>
     <row r="522" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A522" s="154" t="s">
+      <c r="A522" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="B522" s="139"/>
+      <c r="B522" s="138"/>
       <c r="C522" s="124"/>
       <c r="D522" s="124">
         <f>((((D520+E520+G520+H520+I520+K520+L520+F520+J520)*A519)/100)+A519)*100</f>
@@ -32092,10 +32096,10 @@
       <c r="AX522" s="20"/>
     </row>
     <row r="523" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A523" s="151" t="s">
+      <c r="A523" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="B523" s="139"/>
+      <c r="B523" s="138"/>
       <c r="C523" s="125"/>
       <c r="D523" s="125"/>
       <c r="E523" s="72"/>
@@ -32440,17 +32444,17 @@
       <c r="AX528" s="20"/>
     </row>
     <row r="529" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A529" s="151"/>
-      <c r="B529" s="139"/>
+      <c r="A529" s="150"/>
+      <c r="B529" s="138"/>
       <c r="C529" s="126"/>
-      <c r="D529" s="146"/>
-      <c r="E529" s="139"/>
-      <c r="F529" s="146"/>
-      <c r="G529" s="139"/>
+      <c r="D529" s="145"/>
+      <c r="E529" s="138"/>
+      <c r="F529" s="145"/>
+      <c r="G529" s="138"/>
       <c r="H529" s="126"/>
       <c r="I529" s="126"/>
-      <c r="J529" s="146"/>
-      <c r="K529" s="139"/>
+      <c r="J529" s="145"/>
+      <c r="K529" s="138"/>
       <c r="L529" s="127"/>
       <c r="M529" s="72"/>
       <c r="N529" s="72"/>
@@ -32492,8 +32496,8 @@
       <c r="AX529" s="20"/>
     </row>
     <row r="530" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A530" s="151"/>
-      <c r="B530" s="139"/>
+      <c r="A530" s="150"/>
+      <c r="B530" s="138"/>
       <c r="C530" s="76"/>
       <c r="D530" s="76"/>
       <c r="E530" s="76"/>
@@ -32544,8 +32548,8 @@
       <c r="AX530" s="20"/>
     </row>
     <row r="531" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A531" s="151"/>
-      <c r="B531" s="139"/>
+      <c r="A531" s="150"/>
+      <c r="B531" s="138"/>
       <c r="C531" s="125"/>
       <c r="D531" s="125"/>
       <c r="E531" s="125"/>
@@ -32596,8 +32600,8 @@
       <c r="AX531" s="20"/>
     </row>
     <row r="532" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A532" s="151"/>
-      <c r="B532" s="139"/>
+      <c r="A532" s="150"/>
+      <c r="B532" s="138"/>
       <c r="C532" s="72"/>
       <c r="D532" s="72"/>
       <c r="E532" s="72"/>
@@ -32648,8 +32652,8 @@
       <c r="AX532" s="20"/>
     </row>
     <row r="533" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A533" s="151"/>
-      <c r="B533" s="139"/>
+      <c r="A533" s="150"/>
+      <c r="B533" s="138"/>
       <c r="C533" s="72"/>
       <c r="D533" s="72"/>
       <c r="E533" s="72"/>
@@ -32700,8 +32704,8 @@
       <c r="AX533" s="20"/>
     </row>
     <row r="534" spans="1:50" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A534" s="151"/>
-      <c r="B534" s="139"/>
+      <c r="A534" s="150"/>
+      <c r="B534" s="138"/>
       <c r="C534" s="125"/>
       <c r="D534" s="125"/>
       <c r="E534" s="72"/>
@@ -33115,15 +33119,15 @@
       <c r="AX541" s="20"/>
     </row>
     <row r="542" spans="1:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A542" s="152" t="s">
+      <c r="A542" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="B542" s="138"/>
-      <c r="C542" s="138"/>
-      <c r="D542" s="138"/>
-      <c r="E542" s="138"/>
-      <c r="F542" s="138"/>
-      <c r="G542" s="139"/>
+      <c r="B542" s="137"/>
+      <c r="C542" s="137"/>
+      <c r="D542" s="137"/>
+      <c r="E542" s="137"/>
+      <c r="F542" s="137"/>
+      <c r="G542" s="138"/>
       <c r="H542" s="128"/>
       <c r="I542" s="128"/>
       <c r="J542" s="128"/>
@@ -38943,15 +38947,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="171" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="132" t="s">
@@ -40151,7 +40155,9 @@
   </sheetPr>
   <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -40161,11 +40167,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="173"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="132" t="s">
@@ -41040,7 +41046,7 @@
   <dimension ref="A3:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -41051,1537 +41057,736 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="172"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
+      <c r="A3" s="171"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="173" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="174" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="133" t="s">
+      <c r="E4" s="174" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="133" t="s">
+      <c r="F4" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="133" t="s">
+      <c r="G4" s="174" t="s">
         <v>170</v>
       </c>
-      <c r="H4" s="135" t="s">
+      <c r="H4" s="175" t="s">
         <v>169</v>
       </c>
-      <c r="I4" s="135" t="s">
+      <c r="I4" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="J4" s="133" t="s">
+      <c r="J4" s="174" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="132">
+      <c r="A5" s="173">
         <v>1</v>
       </c>
-      <c r="B5" s="134">
+      <c r="B5" s="174">
         <f>'After crsis table'!B4</f>
         <v>6000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="176">
         <f>'After crsis table'!C4</f>
         <v>600000</v>
       </c>
-      <c r="D5" s="99">
+      <c r="D5" s="177">
         <f>'After crsis table'!D4</f>
         <v>600000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="176">
         <f>'After crsis table'!E4</f>
         <v>6000</v>
       </c>
-      <c r="F5" s="99">
+      <c r="F5" s="177">
         <f>'After crsis table'!F4</f>
         <v>720000</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="176">
         <f>'After crsis table'!G4</f>
         <v>7200</v>
       </c>
-      <c r="H5" s="133">
+      <c r="H5" s="174">
         <v>10</v>
       </c>
-      <c r="I5" s="133">
+      <c r="I5" s="174">
         <f t="shared" ref="I5:I44" si="0">H5/10</f>
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="176">
         <f t="shared" ref="J5:J44" si="1">G5+I5</f>
         <v>7201</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="132">
+      <c r="A6" s="173">
         <v>2</v>
       </c>
-      <c r="B6" s="134">
+      <c r="B6" s="174">
         <f>'After crsis table'!B5</f>
         <v>7234</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="176">
         <f>'After crsis table'!C5</f>
         <v>723400</v>
       </c>
-      <c r="D6" s="99">
+      <c r="D6" s="177">
         <f>'After crsis table'!D5</f>
         <v>788506</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="176">
         <f>'After crsis table'!E5</f>
         <v>7885.06</v>
       </c>
-      <c r="F6" s="99">
+      <c r="F6" s="177">
         <f>'After crsis table'!F5</f>
         <v>723400</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="176">
         <f>'After crsis table'!G5</f>
         <v>7234</v>
       </c>
-      <c r="H6" s="133">
+      <c r="H6" s="174">
         <v>100</v>
       </c>
-      <c r="I6" s="133">
+      <c r="I6" s="174">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="176">
         <f t="shared" si="1"/>
         <v>7244</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="132">
+      <c r="A7" s="173">
         <v>3</v>
       </c>
-      <c r="B7" s="134">
+      <c r="B7" s="174">
         <f>'After crsis table'!B6</f>
         <v>8000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="176">
         <f>'After crsis table'!C6</f>
         <v>800000</v>
       </c>
-      <c r="D7" s="99">
+      <c r="D7" s="177">
         <f>'After crsis table'!D6</f>
         <v>1016000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="176">
         <f>'After crsis table'!E6</f>
         <v>10160</v>
       </c>
-      <c r="F7" s="99">
+      <c r="F7" s="177">
         <f>'After crsis table'!F6</f>
         <v>1219200</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="176">
         <f>'After crsis table'!G6</f>
         <v>12192</v>
       </c>
-      <c r="I7" s="133">
+      <c r="H7" s="176"/>
+      <c r="I7" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="176">
         <f t="shared" si="1"/>
         <v>12192</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="132">
+      <c r="A8" s="173">
         <v>4</v>
       </c>
-      <c r="B8" s="134">
+      <c r="B8" s="174">
         <f>'After crsis table'!B7</f>
         <v>9540</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="176">
         <f>'After crsis table'!C7</f>
         <v>954000</v>
       </c>
-      <c r="D8" s="99">
+      <c r="D8" s="177">
         <f>'After crsis table'!D7</f>
         <v>1221120</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="176">
         <f>'After crsis table'!E7</f>
         <v>12211.2</v>
       </c>
-      <c r="F8" s="99">
+      <c r="F8" s="177">
         <f>'After crsis table'!F7</f>
         <v>854784</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="176">
         <f>'After crsis table'!G7</f>
         <v>8547.84</v>
       </c>
-      <c r="H8" s="133">
+      <c r="H8" s="174">
         <v>20</v>
       </c>
-      <c r="I8" s="133">
+      <c r="I8" s="174">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="176">
         <f t="shared" si="1"/>
         <v>8549.84</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="132">
+      <c r="A9" s="173">
         <v>5</v>
       </c>
-      <c r="B9" s="134">
+      <c r="B9" s="174">
         <f>'After crsis table'!B8</f>
         <v>800000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="176">
         <f>'After crsis table'!C8</f>
         <v>80000000</v>
       </c>
-      <c r="D9" s="99">
+      <c r="D9" s="177">
         <f>'After crsis table'!D8</f>
         <v>92000000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="176">
         <f>'After crsis table'!E8</f>
         <v>920000</v>
       </c>
-      <c r="F9" s="99">
+      <c r="F9" s="177">
         <f>'After crsis table'!F8</f>
         <v>110400000</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="176">
         <f>'After crsis table'!G8</f>
         <v>1104000</v>
       </c>
-      <c r="I9" s="133">
+      <c r="H9" s="176"/>
+      <c r="I9" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="176">
         <f t="shared" si="1"/>
         <v>1104000</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="132">
+      <c r="A10" s="173">
         <v>6</v>
       </c>
-      <c r="B10" s="134">
+      <c r="B10" s="174">
         <f>'After crsis table'!B9</f>
         <v>8006765</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="176">
         <f>'After crsis table'!C9</f>
         <v>800676500</v>
       </c>
-      <c r="D10" s="99">
+      <c r="D10" s="177">
         <f>'After crsis table'!D9</f>
         <v>920777975</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="176">
         <f>'After crsis table'!E9</f>
         <v>9207779.75</v>
       </c>
-      <c r="F10" s="99">
+      <c r="F10" s="177">
         <f>'After crsis table'!F9</f>
         <v>800676500</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="176">
         <f>'After crsis table'!G9</f>
         <v>8006765</v>
       </c>
-      <c r="I10" s="133">
+      <c r="H10" s="176"/>
+      <c r="I10" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="176">
         <f t="shared" si="1"/>
         <v>8006765</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="132">
+      <c r="A11" s="173">
         <v>7</v>
       </c>
-      <c r="B11" s="134">
+      <c r="B11" s="174">
         <f>'After crsis table'!B10</f>
         <v>800000</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="176">
         <f>'After crsis table'!C10</f>
         <v>80000000</v>
       </c>
-      <c r="D11" s="99">
+      <c r="D11" s="177">
         <f>'After crsis table'!D10</f>
         <v>92000000</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="176">
         <f>'After crsis table'!E10</f>
         <v>920000</v>
       </c>
-      <c r="F11" s="99">
+      <c r="F11" s="177">
         <f>'After crsis table'!F10</f>
         <v>64400000</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="176">
         <f>'After crsis table'!G10</f>
         <v>644000</v>
       </c>
-      <c r="I11" s="133">
+      <c r="H11" s="176"/>
+      <c r="I11" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="176">
         <f t="shared" si="1"/>
         <v>644000</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="132" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="134">
+      <c r="A12" s="173">
+        <v>8</v>
+      </c>
+      <c r="B12" s="174">
         <f>'After crsis table'!B11</f>
         <v>800000</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="176">
         <f>'After crsis table'!C11</f>
         <v>80000000</v>
       </c>
-      <c r="D12" s="99">
+      <c r="D12" s="177">
         <f>'After crsis table'!D11</f>
         <v>92000000</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="176">
         <f>'After crsis table'!E11</f>
         <v>920000</v>
       </c>
-      <c r="F12" s="99">
+      <c r="F12" s="177">
         <f>'After crsis table'!F11</f>
         <v>110400000</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="176">
         <f>'After crsis table'!G11</f>
         <v>1104000</v>
       </c>
-      <c r="I12" s="133">
+      <c r="H12" s="176"/>
+      <c r="I12" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="176">
         <f t="shared" si="1"/>
         <v>1104000</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="132" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="134">
+      <c r="A13" s="173">
+        <v>9</v>
+      </c>
+      <c r="B13" s="174">
         <f>'After crsis table'!B12</f>
         <v>800000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="176">
         <f>'After crsis table'!C12</f>
         <v>80000000</v>
       </c>
-      <c r="D13" s="99">
+      <c r="D13" s="177">
         <f>'After crsis table'!D12</f>
         <v>92000000</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="176">
         <f>'After crsis table'!E12</f>
         <v>920000</v>
       </c>
-      <c r="F13" s="99">
+      <c r="F13" s="177">
         <f>'After crsis table'!F12</f>
         <v>78200000</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="176">
         <f>'After crsis table'!G12</f>
         <v>782000</v>
       </c>
-      <c r="I13" s="133">
+      <c r="H13" s="176"/>
+      <c r="I13" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="176">
         <f t="shared" si="1"/>
         <v>782000</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="132" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="134">
+      <c r="A14" s="173">
+        <v>10</v>
+      </c>
+      <c r="B14" s="174">
         <f>'After crsis table'!B13</f>
         <v>800000</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="176">
         <f>'After crsis table'!C13</f>
         <v>80000000</v>
       </c>
-      <c r="D14" s="99">
+      <c r="D14" s="177">
         <f>'After crsis table'!D13</f>
         <v>92000000</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="176">
         <f>'After crsis table'!E13</f>
         <v>920000</v>
       </c>
-      <c r="F14" s="99">
+      <c r="F14" s="177">
         <f>'After crsis table'!F13</f>
         <v>64400000</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="176">
         <f>'After crsis table'!G13</f>
         <v>644000</v>
       </c>
-      <c r="I14" s="133">
+      <c r="H14" s="176"/>
+      <c r="I14" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="176">
         <f t="shared" si="1"/>
         <v>644000</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="132" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="134">
+      <c r="A15" s="173">
+        <v>11</v>
+      </c>
+      <c r="B15" s="174">
         <f>'After crsis table'!B14</f>
         <v>800000</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="176">
         <f>'After crsis table'!C14</f>
         <v>80000000</v>
       </c>
-      <c r="D15" s="99">
+      <c r="D15" s="177">
         <f>'After crsis table'!D14</f>
         <v>92000000</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="176">
         <f>'After crsis table'!E14</f>
         <v>920000</v>
       </c>
-      <c r="F15" s="99">
+      <c r="F15" s="177">
         <f>'After crsis table'!F14</f>
         <v>110400000</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="176">
         <f>'After crsis table'!G14</f>
         <v>1104000</v>
       </c>
-      <c r="I15" s="133">
+      <c r="H15" s="176"/>
+      <c r="I15" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="176">
         <f t="shared" si="1"/>
         <v>1104000</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="132" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="134">
+      <c r="A16" s="173">
+        <v>12</v>
+      </c>
+      <c r="B16" s="174">
         <f>'After crsis table'!B15</f>
         <v>800000</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="176">
         <f>'After crsis table'!C15</f>
         <v>80000000</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D16" s="177">
         <f>'After crsis table'!D15</f>
         <v>92000000</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="176">
         <f>'After crsis table'!E15</f>
         <v>920000</v>
       </c>
-      <c r="F16" s="99">
+      <c r="F16" s="177">
         <f>'After crsis table'!F15</f>
         <v>64400000</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="176">
         <f>'After crsis table'!G15</f>
         <v>644000</v>
       </c>
-      <c r="I16" s="133">
+      <c r="H16" s="176"/>
+      <c r="I16" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="176">
         <f t="shared" si="1"/>
         <v>644000</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="134">
+      <c r="A17" s="173">
+        <v>13</v>
+      </c>
+      <c r="B17" s="174">
         <f>'After crsis table'!B16</f>
         <v>800000</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="176">
         <f>'After crsis table'!C16</f>
         <v>80000000</v>
       </c>
-      <c r="D17" s="99">
+      <c r="D17" s="177">
         <f>'After crsis table'!D16</f>
         <v>92000000</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="176">
         <f>'After crsis table'!E16</f>
         <v>920000</v>
       </c>
-      <c r="F17" s="99">
+      <c r="F17" s="177">
         <f>'After crsis table'!F16</f>
         <v>64400000</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="176">
         <f>'After crsis table'!G16</f>
         <v>644000</v>
       </c>
-      <c r="I17" s="133">
+      <c r="H17" s="176"/>
+      <c r="I17" s="174">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="176">
         <f t="shared" si="1"/>
         <v>644000</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="132" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="134">
-        <f>'After crsis table'!B17</f>
-        <v>650000</v>
-      </c>
-      <c r="C18">
-        <f>'After crsis table'!C17</f>
-        <v>65000000</v>
-      </c>
-      <c r="D18" s="99">
-        <f>'After crsis table'!D17</f>
-        <v>74750000</v>
-      </c>
-      <c r="E18">
-        <f>'After crsis table'!E17</f>
-        <v>747500</v>
-      </c>
-      <c r="F18" s="99">
-        <f>'After crsis table'!F17</f>
-        <v>78487500</v>
-      </c>
-      <c r="G18">
-        <f>'After crsis table'!G17</f>
-        <v>784875</v>
-      </c>
-      <c r="I18" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>784875</v>
-      </c>
+      <c r="A18" s="132"/>
+      <c r="B18" s="134"/>
+      <c r="D18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="I18" s="133"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="132" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="134">
-        <f>'After crsis table'!B18</f>
-        <v>800000</v>
-      </c>
-      <c r="C19">
-        <f>'After crsis table'!C18</f>
-        <v>80000000</v>
-      </c>
-      <c r="D19" s="99">
-        <f>'After crsis table'!D18</f>
-        <v>92000000</v>
-      </c>
-      <c r="E19">
-        <f>'After crsis table'!E18</f>
-        <v>920000</v>
-      </c>
-      <c r="F19" s="99">
-        <f>'After crsis table'!F18</f>
-        <v>64400000</v>
-      </c>
-      <c r="G19">
-        <f>'After crsis table'!G18</f>
-        <v>644000</v>
-      </c>
-      <c r="I19" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
-        <v>644000</v>
-      </c>
+      <c r="A19" s="132"/>
+      <c r="B19" s="134"/>
+      <c r="D19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="I19" s="133"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="132" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="134">
-        <f>'After crsis table'!B19</f>
-        <v>800000</v>
-      </c>
-      <c r="C20">
-        <f>'After crsis table'!C19</f>
-        <v>80000000</v>
-      </c>
-      <c r="D20" s="99">
-        <f>'After crsis table'!D19</f>
-        <v>92000000</v>
-      </c>
-      <c r="E20">
-        <f>'After crsis table'!E19</f>
-        <v>920000</v>
-      </c>
-      <c r="F20" s="99">
-        <f>'After crsis table'!F19</f>
-        <v>96600000</v>
-      </c>
-      <c r="G20">
-        <f>'After crsis table'!G19</f>
-        <v>966000</v>
-      </c>
-      <c r="I20" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="1"/>
-        <v>966000</v>
-      </c>
+      <c r="A20" s="132"/>
+      <c r="B20" s="134"/>
+      <c r="D20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="I20" s="133"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="132" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="134">
-        <f>'After crsis table'!B20</f>
-        <v>800000</v>
-      </c>
-      <c r="C21">
-        <f>'After crsis table'!C20</f>
-        <v>80000000</v>
-      </c>
-      <c r="D21" s="99">
-        <f>'After crsis table'!D20</f>
-        <v>92000000</v>
-      </c>
-      <c r="E21">
-        <f>'After crsis table'!E20</f>
-        <v>920000</v>
-      </c>
-      <c r="F21" s="99">
-        <f>'After crsis table'!F20</f>
-        <v>78200000</v>
-      </c>
-      <c r="G21">
-        <f>'After crsis table'!G20</f>
-        <v>782000</v>
-      </c>
-      <c r="I21" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="1"/>
-        <v>782000</v>
-      </c>
+      <c r="A21" s="132"/>
+      <c r="B21" s="134"/>
+      <c r="D21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="I21" s="133"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="132" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="134">
-        <f>'After crsis table'!B21</f>
-        <v>8006</v>
-      </c>
-      <c r="C22">
-        <f>'After crsis table'!C21</f>
-        <v>800600</v>
-      </c>
-      <c r="D22" s="99">
-        <f>'After crsis table'!D21</f>
-        <v>920690</v>
-      </c>
-      <c r="E22">
-        <f>'After crsis table'!E21</f>
-        <v>9206.9</v>
-      </c>
-      <c r="F22" s="99">
-        <f>'After crsis table'!F21</f>
-        <v>1104828</v>
-      </c>
-      <c r="G22">
-        <f>'After crsis table'!G21</f>
-        <v>11048.28</v>
-      </c>
-      <c r="I22" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
-        <v>11048.28</v>
-      </c>
+      <c r="A22" s="132"/>
+      <c r="B22" s="134"/>
+      <c r="D22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="I22" s="133"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="134">
-        <f>'After crsis table'!B22</f>
-        <v>800000</v>
-      </c>
-      <c r="C23">
-        <f>'After crsis table'!C22</f>
-        <v>80000000</v>
-      </c>
-      <c r="D23" s="99">
-        <f>'After crsis table'!D22</f>
-        <v>92000000</v>
-      </c>
-      <c r="E23">
-        <f>'After crsis table'!E22</f>
-        <v>920000</v>
-      </c>
-      <c r="F23" s="99">
-        <f>'After crsis table'!F22</f>
-        <v>64400000</v>
-      </c>
-      <c r="G23">
-        <f>'After crsis table'!G22</f>
-        <v>644000</v>
-      </c>
-      <c r="I23" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="1"/>
-        <v>644000</v>
-      </c>
+      <c r="A23" s="132"/>
+      <c r="B23" s="134"/>
+      <c r="D23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="I23" s="133"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="132" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="134">
-        <f>'After crsis table'!B23</f>
-        <v>800000</v>
-      </c>
-      <c r="C24">
-        <f>'After crsis table'!C23</f>
-        <v>80000000</v>
-      </c>
-      <c r="D24" s="99">
-        <f>'After crsis table'!D23</f>
-        <v>92000000</v>
-      </c>
-      <c r="E24">
-        <f>'After crsis table'!E23</f>
-        <v>920000</v>
-      </c>
-      <c r="F24" s="99">
-        <f>'After crsis table'!F23</f>
-        <v>110400000</v>
-      </c>
-      <c r="G24">
-        <f>'After crsis table'!G23</f>
-        <v>1104000</v>
-      </c>
-      <c r="I24" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
-        <v>1104000</v>
-      </c>
+      <c r="A24" s="132"/>
+      <c r="B24" s="134"/>
+      <c r="D24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="I24" s="133"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="132" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="134">
-        <f>'After crsis table'!B24</f>
-        <v>800000</v>
-      </c>
-      <c r="C25">
-        <f>'After crsis table'!C24</f>
-        <v>80000000</v>
-      </c>
-      <c r="D25" s="99">
-        <f>'After crsis table'!D24</f>
-        <v>660594.5</v>
-      </c>
-      <c r="E25">
-        <f>'After crsis table'!E24</f>
-        <v>6605.9449999999997</v>
-      </c>
-      <c r="F25" s="99">
-        <f>'After crsis table'!F24</f>
-        <v>64400000</v>
-      </c>
-      <c r="G25">
-        <f>'After crsis table'!G24</f>
-        <v>644000</v>
-      </c>
-      <c r="I25" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
-        <v>644000</v>
-      </c>
+      <c r="A25" s="132"/>
+      <c r="B25" s="134"/>
+      <c r="D25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="I25" s="133"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="132" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="134">
-        <f>'After crsis table'!B25</f>
-        <v>800000</v>
-      </c>
-      <c r="C26">
-        <f>'After crsis table'!C25</f>
-        <v>80000000</v>
-      </c>
-      <c r="D26" s="99">
-        <f>'After crsis table'!D25</f>
-        <v>92000000</v>
-      </c>
-      <c r="E26">
-        <f>'After crsis table'!E25</f>
-        <v>920000</v>
-      </c>
-      <c r="F26" s="99">
-        <f>'After crsis table'!F25</f>
-        <v>110400000</v>
-      </c>
-      <c r="G26">
-        <f>'After crsis table'!G25</f>
-        <v>1104000</v>
-      </c>
-      <c r="I26" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="1"/>
-        <v>1104000</v>
-      </c>
+      <c r="A26" s="132"/>
+      <c r="B26" s="134"/>
+      <c r="D26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="I26" s="133"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="132" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="134">
-        <f>'After crsis table'!B26</f>
-        <v>800000</v>
-      </c>
-      <c r="C27">
-        <f>'After crsis table'!C26</f>
-        <v>80000000</v>
-      </c>
-      <c r="D27" s="99">
-        <f>'After crsis table'!D26</f>
-        <v>92000000</v>
-      </c>
-      <c r="E27">
-        <f>'After crsis table'!E26</f>
-        <v>920000</v>
-      </c>
-      <c r="F27" s="99">
-        <f>'After crsis table'!F26</f>
-        <v>110400000</v>
-      </c>
-      <c r="G27">
-        <f>'After crsis table'!G26</f>
-        <v>1104000</v>
-      </c>
-      <c r="I27" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="1"/>
-        <v>1104000</v>
-      </c>
+      <c r="A27" s="132"/>
+      <c r="B27" s="134"/>
+      <c r="D27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="I27" s="133"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="132" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" s="134">
-        <f>'After crsis table'!B27</f>
-        <v>800000</v>
-      </c>
-      <c r="C28">
-        <f>'After crsis table'!C27</f>
-        <v>80000000</v>
-      </c>
-      <c r="D28" s="99">
-        <f>'After crsis table'!D27</f>
-        <v>92000000</v>
-      </c>
-      <c r="E28">
-        <f>'After crsis table'!E27</f>
-        <v>920000</v>
-      </c>
-      <c r="F28" s="99">
-        <f>'After crsis table'!F27</f>
-        <v>110400000</v>
-      </c>
-      <c r="G28">
-        <f>'After crsis table'!G27</f>
-        <v>1104000</v>
-      </c>
-      <c r="I28" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="1"/>
-        <v>1104000</v>
-      </c>
+      <c r="A28" s="132"/>
+      <c r="B28" s="134"/>
+      <c r="D28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="I28" s="133"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="132" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="134">
-        <f>'After crsis table'!B28</f>
-        <v>800000</v>
-      </c>
-      <c r="C29">
-        <f>'After crsis table'!C28</f>
-        <v>80000000</v>
-      </c>
-      <c r="D29" s="99">
-        <f>'After crsis table'!D28</f>
-        <v>92000000</v>
-      </c>
-      <c r="E29">
-        <f>'After crsis table'!E28</f>
-        <v>920000</v>
-      </c>
-      <c r="F29" s="99">
-        <f>'After crsis table'!F28</f>
-        <v>110400000</v>
-      </c>
-      <c r="G29">
-        <f>'After crsis table'!G28</f>
-        <v>1104000</v>
-      </c>
-      <c r="I29" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="1"/>
-        <v>1104000</v>
-      </c>
+      <c r="A29" s="132"/>
+      <c r="B29" s="134"/>
+      <c r="D29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="I29" s="133"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="132" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="134">
-        <f>'After crsis table'!B29</f>
-        <v>800000</v>
-      </c>
-      <c r="C30">
-        <f>'After crsis table'!C29</f>
-        <v>80000000</v>
-      </c>
-      <c r="D30" s="99">
-        <f>'After crsis table'!D29</f>
-        <v>92000000</v>
-      </c>
-      <c r="E30">
-        <f>'After crsis table'!E29</f>
-        <v>920000</v>
-      </c>
-      <c r="F30" s="99">
-        <f>'After crsis table'!F29</f>
-        <v>96600000</v>
-      </c>
-      <c r="G30">
-        <f>'After crsis table'!G29</f>
-        <v>966000</v>
-      </c>
-      <c r="I30" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="1"/>
-        <v>966000</v>
-      </c>
+      <c r="A30" s="132"/>
+      <c r="B30" s="134"/>
+      <c r="D30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="I30" s="133"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A31" s="132" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="134">
-        <f>'After crsis table'!B30</f>
-        <v>800000</v>
-      </c>
-      <c r="C31">
-        <f>'After crsis table'!C30</f>
-        <v>80000000</v>
-      </c>
-      <c r="D31" s="99">
-        <f>'After crsis table'!D30</f>
-        <v>92000000</v>
-      </c>
-      <c r="E31">
-        <f>'After crsis table'!E30</f>
-        <v>920000</v>
-      </c>
-      <c r="F31" s="99">
-        <f>'After crsis table'!F30</f>
-        <v>78200000</v>
-      </c>
-      <c r="G31">
-        <f>'After crsis table'!G30</f>
-        <v>782000</v>
-      </c>
-      <c r="I31" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="1"/>
-        <v>782000</v>
-      </c>
+      <c r="A31" s="132"/>
+      <c r="B31" s="134"/>
+      <c r="D31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="I31" s="133"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A32" s="132" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="134">
-        <f>'After crsis table'!B31</f>
-        <v>800000</v>
-      </c>
-      <c r="C32">
-        <f>'After crsis table'!C31</f>
-        <v>80000000</v>
-      </c>
-      <c r="D32" s="99">
-        <f>'After crsis table'!D31</f>
-        <v>92000000</v>
-      </c>
-      <c r="E32">
-        <f>'After crsis table'!E31</f>
-        <v>920000</v>
-      </c>
-      <c r="F32" s="99">
-        <f>'After crsis table'!F31</f>
-        <v>64400000</v>
-      </c>
-      <c r="G32">
-        <f>'After crsis table'!G31</f>
-        <v>644000</v>
-      </c>
-      <c r="I32" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="1"/>
-        <v>644000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A33" s="132" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="134">
-        <f>'After crsis table'!B32</f>
-        <v>6758</v>
-      </c>
-      <c r="C33">
-        <f>'After crsis table'!C32</f>
-        <v>675800</v>
-      </c>
-      <c r="D33" s="99">
-        <f>'After crsis table'!D32</f>
-        <v>777170</v>
-      </c>
-      <c r="E33">
-        <f>'After crsis table'!E32</f>
-        <v>7771.7</v>
-      </c>
-      <c r="F33" s="99">
-        <f>'After crsis table'!F32</f>
-        <v>544019</v>
-      </c>
-      <c r="G33">
-        <f>'After crsis table'!G32</f>
-        <v>5440.19</v>
-      </c>
-      <c r="I33" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="1"/>
-        <v>5440.19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A34" s="132" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="134">
-        <f>'After crsis table'!B33</f>
-        <v>800000</v>
-      </c>
-      <c r="C34">
-        <f>'After crsis table'!C33</f>
-        <v>80000000</v>
-      </c>
-      <c r="D34" s="99">
-        <f>'After crsis table'!D33</f>
-        <v>92000000</v>
-      </c>
-      <c r="E34">
-        <f>'After crsis table'!E33</f>
-        <v>920000</v>
-      </c>
-      <c r="F34" s="99">
-        <f>'After crsis table'!F33</f>
-        <v>78200000</v>
-      </c>
-      <c r="G34">
-        <f>'After crsis table'!G33</f>
-        <v>782000</v>
-      </c>
-      <c r="I34" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="1"/>
-        <v>782000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A35" s="132" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="134">
-        <f>'After crsis table'!B34</f>
-        <v>800000</v>
-      </c>
-      <c r="C35">
-        <f>'After crsis table'!C34</f>
-        <v>80000000</v>
-      </c>
-      <c r="D35" s="99">
-        <f>'After crsis table'!D34</f>
-        <v>92000000</v>
-      </c>
-      <c r="E35">
-        <f>'After crsis table'!E34</f>
-        <v>920000</v>
-      </c>
-      <c r="F35" s="99">
-        <f>'After crsis table'!F34</f>
-        <v>110400000</v>
-      </c>
-      <c r="G35">
-        <f>'After crsis table'!G34</f>
-        <v>1104000</v>
-      </c>
-      <c r="I35" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="1"/>
-        <v>1104000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A36" s="132" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="134">
-        <f>'After crsis table'!B35</f>
-        <v>800000</v>
-      </c>
-      <c r="C36">
-        <f>'After crsis table'!C35</f>
-        <v>80000000</v>
-      </c>
-      <c r="D36" s="99">
-        <f>'After crsis table'!D35</f>
-        <v>92000000</v>
-      </c>
-      <c r="E36">
-        <f>'After crsis table'!E35</f>
-        <v>920000</v>
-      </c>
-      <c r="F36" s="99">
-        <f>'After crsis table'!F35</f>
-        <v>110400000</v>
-      </c>
-      <c r="G36">
-        <f>'After crsis table'!G35</f>
-        <v>1104000</v>
-      </c>
-      <c r="I36" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="1"/>
-        <v>1104000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A37" s="132" t="s">
-        <v>145</v>
-      </c>
-      <c r="B37" s="134">
-        <f>'After crsis table'!B36</f>
-        <v>800000</v>
-      </c>
-      <c r="C37">
-        <f>'After crsis table'!C36</f>
-        <v>80000000</v>
-      </c>
-      <c r="D37" s="99">
-        <f>'After crsis table'!D36</f>
-        <v>92000000</v>
-      </c>
-      <c r="E37">
-        <f>'After crsis table'!E36</f>
-        <v>920000</v>
-      </c>
-      <c r="F37" s="99">
-        <f>'After crsis table'!F36</f>
-        <v>64400000</v>
-      </c>
-      <c r="G37">
-        <f>'After crsis table'!G36</f>
-        <v>644000</v>
-      </c>
-      <c r="I37" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="1"/>
-        <v>644000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A38" s="132" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" s="134">
-        <f>'After crsis table'!B37</f>
-        <v>800000</v>
-      </c>
-      <c r="C38">
-        <f>'After crsis table'!C37</f>
-        <v>80000000</v>
-      </c>
-      <c r="D38" s="99">
-        <f>'After crsis table'!D37</f>
-        <v>92000000</v>
-      </c>
-      <c r="E38">
-        <f>'After crsis table'!E37</f>
-        <v>920000</v>
-      </c>
-      <c r="F38" s="99">
-        <f>'After crsis table'!F37</f>
-        <v>64400000</v>
-      </c>
-      <c r="G38">
-        <f>'After crsis table'!G37</f>
-        <v>644000</v>
-      </c>
-      <c r="I38" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="1"/>
-        <v>644000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A39" s="132" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="134">
-        <f>'After crsis table'!B38</f>
-        <v>800000</v>
-      </c>
-      <c r="C39">
-        <f>'After crsis table'!C38</f>
-        <v>80000000</v>
-      </c>
-      <c r="D39" s="99">
-        <f>'After crsis table'!D38</f>
-        <v>92000000</v>
-      </c>
-      <c r="E39">
-        <f>'After crsis table'!E38</f>
-        <v>920000</v>
-      </c>
-      <c r="F39" s="99">
-        <f>'After crsis table'!F38</f>
-        <v>96600000</v>
-      </c>
-      <c r="G39">
-        <f>'After crsis table'!G38</f>
-        <v>966000</v>
-      </c>
-      <c r="I39" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="1"/>
-        <v>966000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A40" s="132" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" s="134">
-        <f>'After crsis table'!B39</f>
-        <v>800000</v>
-      </c>
-      <c r="C40">
-        <f>'After crsis table'!C39</f>
-        <v>80000000</v>
-      </c>
-      <c r="D40" s="99">
-        <f>'After crsis table'!D39</f>
-        <v>92000000</v>
-      </c>
-      <c r="E40">
-        <f>'After crsis table'!E39</f>
-        <v>920000</v>
-      </c>
-      <c r="F40" s="99">
-        <f>'After crsis table'!F39</f>
-        <v>96600000</v>
-      </c>
-      <c r="G40">
-        <f>'After crsis table'!G39</f>
-        <v>966000</v>
-      </c>
-      <c r="I40" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="1"/>
-        <v>966000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A41" s="132" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" s="134">
-        <f>'After crsis table'!B40</f>
-        <v>800000</v>
-      </c>
-      <c r="C41">
-        <f>'After crsis table'!C40</f>
-        <v>80000000</v>
-      </c>
-      <c r="D41" s="99">
-        <f>'After crsis table'!D40</f>
-        <v>92000000</v>
-      </c>
-      <c r="E41">
-        <f>'After crsis table'!E40</f>
-        <v>920000</v>
-      </c>
-      <c r="F41" s="99">
-        <f>'After crsis table'!F40</f>
-        <v>110400000</v>
-      </c>
-      <c r="G41">
-        <f>'After crsis table'!G40</f>
-        <v>1104000</v>
-      </c>
-      <c r="I41" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="1"/>
-        <v>1104000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A42" s="132" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="134">
-        <f>'After crsis table'!B41</f>
-        <v>800000</v>
-      </c>
-      <c r="C42">
-        <f>'After crsis table'!C41</f>
-        <v>80000000</v>
-      </c>
-      <c r="D42" s="99">
-        <f>'After crsis table'!D41</f>
-        <v>92000000</v>
-      </c>
-      <c r="E42">
-        <f>'After crsis table'!E41</f>
-        <v>920000</v>
-      </c>
-      <c r="F42" s="99">
-        <f>'After crsis table'!F41</f>
-        <v>78200000</v>
-      </c>
-      <c r="G42">
-        <f>'After crsis table'!G41</f>
-        <v>782000</v>
-      </c>
-      <c r="I42" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="1"/>
-        <v>782000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A43" s="132" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="134">
-        <f>'After crsis table'!B42</f>
-        <v>800000</v>
-      </c>
-      <c r="C43">
-        <f>'After crsis table'!C42</f>
-        <v>80000000</v>
-      </c>
-      <c r="D43" s="99">
-        <f>'After crsis table'!D42</f>
-        <v>92000000</v>
-      </c>
-      <c r="E43">
-        <f>'After crsis table'!E42</f>
-        <v>920000</v>
-      </c>
-      <c r="F43" s="99">
-        <f>'After crsis table'!F42</f>
-        <v>110400000</v>
-      </c>
-      <c r="G43">
-        <f>'After crsis table'!G42</f>
-        <v>1104000</v>
-      </c>
-      <c r="I43" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="1"/>
-        <v>1104000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A44" s="132" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" s="136">
-        <f>'After crsis table'!B43</f>
-        <v>8001</v>
-      </c>
-      <c r="C44">
-        <f>'After crsis table'!C43</f>
-        <v>800100</v>
-      </c>
-      <c r="D44">
-        <f>'After crsis table'!D43</f>
-        <v>832104.00000000012</v>
-      </c>
-      <c r="E44">
-        <f>'After crsis table'!E43</f>
-        <v>8321.0400000000009</v>
-      </c>
-      <c r="F44" s="99">
-        <f>'After crsis table'!F43</f>
-        <v>800100</v>
-      </c>
-      <c r="G44">
-        <f>'After crsis table'!G43</f>
-        <v>8001</v>
-      </c>
-      <c r="I44" s="133">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="1"/>
-        <v>8001</v>
-      </c>
+      <c r="A32" s="132"/>
+      <c r="B32" s="134"/>
+      <c r="D32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="I32" s="133"/>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A33" s="132"/>
+      <c r="B33" s="134"/>
+      <c r="D33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="I33" s="133"/>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A34" s="132"/>
+      <c r="B34" s="134"/>
+      <c r="D34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="I34" s="133"/>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A35" s="132"/>
+      <c r="B35" s="134"/>
+      <c r="D35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="I35" s="133"/>
+    </row>
+    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A36" s="132"/>
+      <c r="B36" s="134"/>
+      <c r="D36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="I36" s="133"/>
+    </row>
+    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A37" s="132"/>
+      <c r="B37" s="134"/>
+      <c r="D37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="I37" s="133"/>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A38" s="132"/>
+      <c r="B38" s="134"/>
+      <c r="D38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="I38" s="133"/>
+    </row>
+    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A39" s="132"/>
+      <c r="B39" s="134"/>
+      <c r="D39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="I39" s="133"/>
+    </row>
+    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A40" s="132"/>
+      <c r="B40" s="134"/>
+      <c r="D40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="I40" s="133"/>
+    </row>
+    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A41" s="132"/>
+      <c r="B41" s="134"/>
+      <c r="D41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="I41" s="133"/>
+    </row>
+    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A42" s="132"/>
+      <c r="B42" s="134"/>
+      <c r="D42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="I42" s="133"/>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A43" s="132"/>
+      <c r="B43" s="134"/>
+      <c r="D43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="I43" s="133"/>
+    </row>
+    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A44" s="132"/>
+      <c r="B44" s="135"/>
+      <c r="F44" s="99"/>
+      <c r="I44" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="1">
